--- a/松田/Press Cube/Ver1.0/PressCube_仕様書_2Dリソース.xlsx
+++ b/松田/Press Cube/Ver1.0/PressCube_仕様書_2Dリソース.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hermes\ゲーム制作\2020年度\仕様書\Press Cube\Ver1.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hermes\ゲーム制作\2020年度\Source-tree\HermesGames_Trainingserver\松田\Press Cube\Ver1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48FA309-FA62-469E-9208-8ACE66743778}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09B50A67-7CFE-4242-B311-71E0B71A0EEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
     <sheet name="2Dリソース" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="95">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -448,19 +449,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・灰色をベースにフォントカラーは白で記載</t>
-    <rPh sb="1" eb="3">
-      <t>ハイイロ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>game_allclear_logo.png</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -533,18 +521,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・灰色をベースにフォントカラーは白で記載</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステージ自体をやり直すロゴ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・橙色をベースにフォントカラーは白で記載</t>
-    <rPh sb="1" eb="3">
-      <t>ダイダイイロ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -588,13 +565,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・橙色をベースにフォントカラーは白で記載</t>
+    <t>・色の16進数は353535の予定
+・縦横１６：９</t>
+    <rPh sb="19" eb="21">
+      <t>タテヨコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景色は薄い茶色</t>
+    <rPh sb="0" eb="3">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・灰色をベースにフォントカラーは白で記載
+・フォントはメイリオ
+・フォントサイズは12</t>
+    <rPh sb="1" eb="3">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・灰色をベースにフォントカラーは白で記載
+・フォントはメイリオ
+・フォントサイズは12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・橙色をベースにフォントカラーは白で記載
+・フォントはメイリオ
+・フォントサイズは12</t>
+    <rPh sb="1" eb="3">
+      <t>ダイダイイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・橙色をベースにフォントカラーは白で記載
+・フォントはメイリオ
+・フォントサイズは12</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>・濃い灰色をベースに画面中央上には画像を添付し、画像中央下には操作するボタンの名称を表示。
 ・フォントカラーは白
-・操作ボタンの名称は番号ごとに表示</t>
+・操作ボタンの名称は番号ごとに表示
+・フォントはメイリオ
+・フォントサイズは12</t>
     <rPh sb="1" eb="2">
       <t>コ</t>
     </rPh>
@@ -643,16 +675,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・色の16進数は353535の予定
-・縦横１６：９</t>
-    <rPh sb="19" eb="21">
-      <t>タテヨコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・チュートリアルに使われるメッセージのフォントはメイリオ。
-・フォントカラーは白</t>
+・フォントカラーは白
+・フォントはメイリオ
+・フォントサイズは10</t>
     <rPh sb="9" eb="10">
       <t>ツカ</t>
     </rPh>
@@ -662,16 +688,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>背景色は薄い茶色</t>
-    <rPh sb="0" eb="3">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウス</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>チャイロ</t>
-    </rPh>
+    <t>ゲームタイトルを表示する為のロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_title.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>320*1600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>game_start.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>96*760</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームを開始する為のアナウンスを表示するロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フォントカラーはメタリック
+・フォントはメイリオ
+・フォントサイズは36
+フォント作成については下記のURLから作成
+・https://ja.cooltext.com/ (Cool Text)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・フォントカラーはメタリック
+・フォントはメイリオ
+・フォントサイズは12
+フォント作成については下記のURLから作成
+・https://ja.cooltext.com/ (Cool Text)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1524,8 +1577,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1428750" y="18097500"/>
-          <a:ext cx="1666875" cy="1466850"/>
+          <a:off x="1417320" y="18493740"/>
+          <a:ext cx="1638300" cy="1501140"/>
           <a:chOff x="2293620" y="11544300"/>
           <a:chExt cx="601980" cy="518160"/>
         </a:xfrm>
@@ -1659,8 +1712,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4200525" y="18107027"/>
-          <a:ext cx="1495425" cy="1438281"/>
+          <a:off x="4152900" y="18508982"/>
+          <a:ext cx="1478280" cy="1463046"/>
           <a:chOff x="5928360" y="11635738"/>
           <a:chExt cx="601980" cy="518162"/>
         </a:xfrm>
@@ -3732,6 +3785,106 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>639</xdr:row>
+      <xdr:rowOff>137320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>643</xdr:row>
+      <xdr:rowOff>101181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D6DC6EF-5356-4F77-8E8D-EB0A7C8B2B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1920240" y="112128460"/>
+          <a:ext cx="3352800" cy="664901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>669</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>671</xdr:row>
+      <xdr:rowOff>73401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047F4A93-7D8C-42E3-912E-4B81A32FAACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1691640" y="117256561"/>
+          <a:ext cx="3596640" cy="416300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6244,7 +6397,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EFD6AD-BC50-4081-B4E6-0E5707F89605}">
-  <dimension ref="A1:CD623"/>
+  <dimension ref="A1:CD679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:G7"/>
@@ -22866,8 +23019,8 @@
       <c r="AH242" s="49"/>
       <c r="AI242" s="49"/>
       <c r="AJ242" s="49"/>
-      <c r="AK242" s="51" t="s">
-        <v>50</v>
+      <c r="AK242" s="50" t="s">
+        <v>81</v>
       </c>
       <c r="AL242" s="51"/>
       <c r="AM242" s="51"/>
@@ -24370,7 +24523,7 @@
     </row>
     <row r="265" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I265" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J265" s="47"/>
       <c r="K265" s="47"/>
@@ -24390,7 +24543,7 @@
       <c r="Y265" s="47"/>
       <c r="Z265" s="47"/>
       <c r="AA265" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB265" s="47"/>
       <c r="AC265" s="47"/>
@@ -24402,7 +24555,7 @@
       <c r="AI265" s="47"/>
       <c r="AJ265" s="47"/>
       <c r="AK265" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AL265" s="47"/>
       <c r="AM265" s="47"/>
@@ -24787,8 +24940,8 @@
       <c r="AH270" s="49"/>
       <c r="AI270" s="49"/>
       <c r="AJ270" s="49"/>
-      <c r="AK270" s="51" t="s">
-        <v>69</v>
+      <c r="AK270" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="AL270" s="51"/>
       <c r="AM270" s="51"/>
@@ -26291,7 +26444,7 @@
     </row>
     <row r="293" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I293" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J293" s="47"/>
       <c r="K293" s="47"/>
@@ -26323,7 +26476,7 @@
       <c r="AI293" s="47"/>
       <c r="AJ293" s="47"/>
       <c r="AK293" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AL293" s="47"/>
       <c r="AM293" s="47"/>
@@ -26708,8 +26861,8 @@
       <c r="AH298" s="49"/>
       <c r="AI298" s="49"/>
       <c r="AJ298" s="49"/>
-      <c r="AK298" s="51" t="s">
-        <v>69</v>
+      <c r="AK298" s="50" t="s">
+        <v>82</v>
       </c>
       <c r="AL298" s="51"/>
       <c r="AM298" s="51"/>
@@ -28212,7 +28365,7 @@
     </row>
     <row r="321" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I321" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J321" s="47"/>
       <c r="K321" s="47"/>
@@ -28232,7 +28385,7 @@
       <c r="Y321" s="47"/>
       <c r="Z321" s="47"/>
       <c r="AA321" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB321" s="47"/>
       <c r="AC321" s="47"/>
@@ -28244,7 +28397,7 @@
       <c r="AI321" s="47"/>
       <c r="AJ321" s="47"/>
       <c r="AK321" s="47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AL321" s="47"/>
       <c r="AM321" s="47"/>
@@ -28629,8 +28782,8 @@
       <c r="AH326" s="49"/>
       <c r="AI326" s="49"/>
       <c r="AJ326" s="49"/>
-      <c r="AK326" s="51" t="s">
-        <v>71</v>
+      <c r="AK326" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="AL326" s="51"/>
       <c r="AM326" s="51"/>
@@ -30133,7 +30286,7 @@
     </row>
     <row r="349" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I349" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J349" s="47"/>
       <c r="K349" s="47"/>
@@ -30153,7 +30306,7 @@
       <c r="Y349" s="47"/>
       <c r="Z349" s="47"/>
       <c r="AA349" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB349" s="47"/>
       <c r="AC349" s="47"/>
@@ -30165,7 +30318,7 @@
       <c r="AI349" s="47"/>
       <c r="AJ349" s="47"/>
       <c r="AK349" s="47" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AL349" s="47"/>
       <c r="AM349" s="47"/>
@@ -30550,8 +30703,8 @@
       <c r="AH354" s="49"/>
       <c r="AI354" s="49"/>
       <c r="AJ354" s="49"/>
-      <c r="AK354" s="51" t="s">
-        <v>82</v>
+      <c r="AK354" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="AL354" s="51"/>
       <c r="AM354" s="51"/>
@@ -32054,7 +32207,7 @@
     </row>
     <row r="377" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I377" s="47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J377" s="47"/>
       <c r="K377" s="47"/>
@@ -32074,7 +32227,7 @@
       <c r="Y377" s="47"/>
       <c r="Z377" s="47"/>
       <c r="AA377" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB377" s="47"/>
       <c r="AC377" s="47"/>
@@ -32086,7 +32239,7 @@
       <c r="AI377" s="47"/>
       <c r="AJ377" s="47"/>
       <c r="AK377" s="47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AL377" s="47"/>
       <c r="AM377" s="47"/>
@@ -32471,8 +32624,8 @@
       <c r="AH382" s="49"/>
       <c r="AI382" s="49"/>
       <c r="AJ382" s="49"/>
-      <c r="AK382" s="51" t="s">
-        <v>82</v>
+      <c r="AK382" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="AL382" s="51"/>
       <c r="AM382" s="51"/>
@@ -33975,7 +34128,7 @@
     </row>
     <row r="405" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I405" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J405" s="47"/>
       <c r="K405" s="47"/>
@@ -33995,7 +34148,7 @@
       <c r="Y405" s="47"/>
       <c r="Z405" s="47"/>
       <c r="AA405" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB405" s="47"/>
       <c r="AC405" s="47"/>
@@ -34007,7 +34160,7 @@
       <c r="AI405" s="47"/>
       <c r="AJ405" s="47"/>
       <c r="AK405" s="47" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AL405" s="47"/>
       <c r="AM405" s="47"/>
@@ -34392,8 +34545,8 @@
       <c r="AH410" s="49"/>
       <c r="AI410" s="49"/>
       <c r="AJ410" s="49"/>
-      <c r="AK410" s="51" t="s">
-        <v>82</v>
+      <c r="AK410" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="AL410" s="51"/>
       <c r="AM410" s="51"/>
@@ -35896,7 +36049,7 @@
     </row>
     <row r="433" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I433" s="47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J433" s="47"/>
       <c r="K433" s="47"/>
@@ -35916,7 +36069,7 @@
       <c r="Y433" s="47"/>
       <c r="Z433" s="47"/>
       <c r="AA433" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB433" s="47"/>
       <c r="AC433" s="47"/>
@@ -35928,7 +36081,7 @@
       <c r="AI433" s="47"/>
       <c r="AJ433" s="47"/>
       <c r="AK433" s="47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AL433" s="47"/>
       <c r="AM433" s="47"/>
@@ -36314,7 +36467,7 @@
       <c r="AI438" s="49"/>
       <c r="AJ438" s="49"/>
       <c r="AK438" s="50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AL438" s="51"/>
       <c r="AM438" s="51"/>
@@ -37817,7 +37970,7 @@
     </row>
     <row r="461" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I461" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J461" s="47"/>
       <c r="K461" s="47"/>
@@ -37837,7 +37990,7 @@
       <c r="Y461" s="47"/>
       <c r="Z461" s="47"/>
       <c r="AA461" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB461" s="47"/>
       <c r="AC461" s="47"/>
@@ -37849,7 +38002,7 @@
       <c r="AI461" s="47"/>
       <c r="AJ461" s="47"/>
       <c r="AK461" s="47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL461" s="47"/>
       <c r="AM461" s="47"/>
@@ -38234,8 +38387,8 @@
       <c r="AH466" s="49"/>
       <c r="AI466" s="49"/>
       <c r="AJ466" s="49"/>
-      <c r="AK466" s="51" t="s">
-        <v>82</v>
+      <c r="AK466" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="AL466" s="51"/>
       <c r="AM466" s="51"/>
@@ -39738,7 +39891,7 @@
     </row>
     <row r="489" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I489" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J489" s="47"/>
       <c r="K489" s="47"/>
@@ -39758,7 +39911,7 @@
       <c r="Y489" s="47"/>
       <c r="Z489" s="47"/>
       <c r="AA489" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB489" s="47"/>
       <c r="AC489" s="47"/>
@@ -39770,7 +39923,7 @@
       <c r="AI489" s="47"/>
       <c r="AJ489" s="47"/>
       <c r="AK489" s="47" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AL489" s="47"/>
       <c r="AM489" s="47"/>
@@ -40155,8 +40308,8 @@
       <c r="AH494" s="49"/>
       <c r="AI494" s="49"/>
       <c r="AJ494" s="49"/>
-      <c r="AK494" s="51" t="s">
-        <v>82</v>
+      <c r="AK494" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="AL494" s="51"/>
       <c r="AM494" s="51"/>
@@ -41659,7 +41812,7 @@
     </row>
     <row r="517" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I517" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J517" s="47"/>
       <c r="K517" s="47"/>
@@ -41679,7 +41832,7 @@
       <c r="Y517" s="47"/>
       <c r="Z517" s="47"/>
       <c r="AA517" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB517" s="47"/>
       <c r="AC517" s="47"/>
@@ -41691,7 +41844,7 @@
       <c r="AI517" s="47"/>
       <c r="AJ517" s="47"/>
       <c r="AK517" s="47" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AL517" s="47"/>
       <c r="AM517" s="47"/>
@@ -42076,8 +42229,8 @@
       <c r="AH522" s="49"/>
       <c r="AI522" s="49"/>
       <c r="AJ522" s="49"/>
-      <c r="AK522" s="51" t="s">
-        <v>82</v>
+      <c r="AK522" s="50" t="s">
+        <v>84</v>
       </c>
       <c r="AL522" s="51"/>
       <c r="AM522" s="51"/>
@@ -43580,7 +43733,7 @@
     </row>
     <row r="545" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I545" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J545" s="47"/>
       <c r="K545" s="47"/>
@@ -43600,7 +43753,7 @@
       <c r="Y545" s="47"/>
       <c r="Z545" s="47"/>
       <c r="AA545" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB545" s="47"/>
       <c r="AC545" s="47"/>
@@ -43612,7 +43765,7 @@
       <c r="AI545" s="47"/>
       <c r="AJ545" s="47"/>
       <c r="AK545" s="47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AL545" s="47"/>
       <c r="AM545" s="47"/>
@@ -43998,7 +44151,7 @@
       <c r="AI550" s="49"/>
       <c r="AJ550" s="49"/>
       <c r="AK550" s="50" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AL550" s="51"/>
       <c r="AM550" s="51"/>
@@ -45501,7 +45654,7 @@
     </row>
     <row r="573" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I573" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J573" s="47"/>
       <c r="K573" s="47"/>
@@ -45521,7 +45674,7 @@
       <c r="Y573" s="47"/>
       <c r="Z573" s="47"/>
       <c r="AA573" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB573" s="47"/>
       <c r="AC573" s="47"/>
@@ -45533,7 +45686,7 @@
       <c r="AI573" s="47"/>
       <c r="AJ573" s="47"/>
       <c r="AK573" s="47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AL573" s="47"/>
       <c r="AM573" s="47"/>
@@ -45919,7 +46072,7 @@
       <c r="AI578" s="49"/>
       <c r="AJ578" s="49"/>
       <c r="AK578" s="50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL578" s="51"/>
       <c r="AM578" s="51"/>
@@ -47422,7 +47575,7 @@
     </row>
     <row r="601" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I601" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J601" s="47"/>
       <c r="K601" s="47"/>
@@ -47442,7 +47595,7 @@
       <c r="Y601" s="47"/>
       <c r="Z601" s="47"/>
       <c r="AA601" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB601" s="47"/>
       <c r="AC601" s="47"/>
@@ -47454,7 +47607,7 @@
       <c r="AI601" s="47"/>
       <c r="AJ601" s="47"/>
       <c r="AK601" s="47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AL601" s="47"/>
       <c r="AM601" s="47"/>
@@ -47840,7 +47993,7 @@
       <c r="AI606" s="49"/>
       <c r="AJ606" s="49"/>
       <c r="AK606" s="51" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AL606" s="51"/>
       <c r="AM606" s="51"/>
@@ -49180,8 +49333,3872 @@
       <c r="CC623" s="51"/>
       <c r="CD623" s="51"/>
     </row>
+    <row r="626" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="627" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I627" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J627" s="46"/>
+      <c r="K627" s="46"/>
+      <c r="L627" s="46"/>
+      <c r="M627" s="46"/>
+      <c r="N627" s="46"/>
+      <c r="O627" s="46"/>
+      <c r="P627" s="46"/>
+      <c r="Q627" s="46"/>
+      <c r="R627" s="46"/>
+      <c r="S627" s="46"/>
+      <c r="T627" s="46"/>
+      <c r="U627" s="46"/>
+      <c r="V627" s="46"/>
+      <c r="W627" s="46"/>
+      <c r="X627" s="46"/>
+      <c r="Y627" s="46"/>
+      <c r="Z627" s="46"/>
+      <c r="AA627" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB627" s="46"/>
+      <c r="AC627" s="46"/>
+      <c r="AD627" s="46"/>
+      <c r="AE627" s="46"/>
+      <c r="AF627" s="46"/>
+      <c r="AG627" s="46"/>
+      <c r="AH627" s="46"/>
+      <c r="AI627" s="46"/>
+      <c r="AJ627" s="46"/>
+      <c r="AK627" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL627" s="46"/>
+      <c r="AM627" s="46"/>
+      <c r="AN627" s="46"/>
+      <c r="AO627" s="46"/>
+      <c r="AP627" s="46"/>
+      <c r="AQ627" s="46"/>
+      <c r="AR627" s="46"/>
+      <c r="AS627" s="46"/>
+      <c r="AT627" s="46"/>
+      <c r="AU627" s="46"/>
+      <c r="AV627" s="46"/>
+      <c r="AW627" s="46"/>
+      <c r="AX627" s="46"/>
+      <c r="AY627" s="46"/>
+      <c r="AZ627" s="46"/>
+      <c r="BA627" s="46"/>
+      <c r="BB627" s="46"/>
+      <c r="BC627" s="46"/>
+      <c r="BD627" s="46"/>
+      <c r="BE627" s="46"/>
+      <c r="BF627" s="46"/>
+      <c r="BG627" s="46"/>
+      <c r="BH627" s="46"/>
+      <c r="BI627" s="46"/>
+      <c r="BJ627" s="46"/>
+      <c r="BK627" s="46"/>
+      <c r="BL627" s="46"/>
+      <c r="BM627" s="46"/>
+      <c r="BN627" s="46"/>
+      <c r="BO627" s="46"/>
+      <c r="BP627" s="46"/>
+      <c r="BQ627" s="46"/>
+      <c r="BR627" s="46"/>
+      <c r="BS627" s="46"/>
+      <c r="BT627" s="46"/>
+      <c r="BU627" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV627" s="46"/>
+      <c r="BW627" s="46"/>
+      <c r="BX627" s="46"/>
+      <c r="BY627" s="46"/>
+      <c r="BZ627" s="46"/>
+      <c r="CA627" s="46"/>
+      <c r="CB627" s="46"/>
+      <c r="CC627" s="46"/>
+      <c r="CD627" s="46"/>
+    </row>
+    <row r="628" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I628" s="46"/>
+      <c r="J628" s="46"/>
+      <c r="K628" s="46"/>
+      <c r="L628" s="46"/>
+      <c r="M628" s="46"/>
+      <c r="N628" s="46"/>
+      <c r="O628" s="46"/>
+      <c r="P628" s="46"/>
+      <c r="Q628" s="46"/>
+      <c r="R628" s="46"/>
+      <c r="S628" s="46"/>
+      <c r="T628" s="46"/>
+      <c r="U628" s="46"/>
+      <c r="V628" s="46"/>
+      <c r="W628" s="46"/>
+      <c r="X628" s="46"/>
+      <c r="Y628" s="46"/>
+      <c r="Z628" s="46"/>
+      <c r="AA628" s="46"/>
+      <c r="AB628" s="46"/>
+      <c r="AC628" s="46"/>
+      <c r="AD628" s="46"/>
+      <c r="AE628" s="46"/>
+      <c r="AF628" s="46"/>
+      <c r="AG628" s="46"/>
+      <c r="AH628" s="46"/>
+      <c r="AI628" s="46"/>
+      <c r="AJ628" s="46"/>
+      <c r="AK628" s="46"/>
+      <c r="AL628" s="46"/>
+      <c r="AM628" s="46"/>
+      <c r="AN628" s="46"/>
+      <c r="AO628" s="46"/>
+      <c r="AP628" s="46"/>
+      <c r="AQ628" s="46"/>
+      <c r="AR628" s="46"/>
+      <c r="AS628" s="46"/>
+      <c r="AT628" s="46"/>
+      <c r="AU628" s="46"/>
+      <c r="AV628" s="46"/>
+      <c r="AW628" s="46"/>
+      <c r="AX628" s="46"/>
+      <c r="AY628" s="46"/>
+      <c r="AZ628" s="46"/>
+      <c r="BA628" s="46"/>
+      <c r="BB628" s="46"/>
+      <c r="BC628" s="46"/>
+      <c r="BD628" s="46"/>
+      <c r="BE628" s="46"/>
+      <c r="BF628" s="46"/>
+      <c r="BG628" s="46"/>
+      <c r="BH628" s="46"/>
+      <c r="BI628" s="46"/>
+      <c r="BJ628" s="46"/>
+      <c r="BK628" s="46"/>
+      <c r="BL628" s="46"/>
+      <c r="BM628" s="46"/>
+      <c r="BN628" s="46"/>
+      <c r="BO628" s="46"/>
+      <c r="BP628" s="46"/>
+      <c r="BQ628" s="46"/>
+      <c r="BR628" s="46"/>
+      <c r="BS628" s="46"/>
+      <c r="BT628" s="46"/>
+      <c r="BU628" s="46"/>
+      <c r="BV628" s="46"/>
+      <c r="BW628" s="46"/>
+      <c r="BX628" s="46"/>
+      <c r="BY628" s="46"/>
+      <c r="BZ628" s="46"/>
+      <c r="CA628" s="46"/>
+      <c r="CB628" s="46"/>
+      <c r="CC628" s="46"/>
+      <c r="CD628" s="46"/>
+    </row>
+    <row r="629" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I629" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="J629" s="47"/>
+      <c r="K629" s="47"/>
+      <c r="L629" s="47"/>
+      <c r="M629" s="47"/>
+      <c r="N629" s="47"/>
+      <c r="O629" s="47"/>
+      <c r="P629" s="47"/>
+      <c r="Q629" s="47"/>
+      <c r="R629" s="47"/>
+      <c r="S629" s="47"/>
+      <c r="T629" s="47"/>
+      <c r="U629" s="47"/>
+      <c r="V629" s="47"/>
+      <c r="W629" s="47"/>
+      <c r="X629" s="47"/>
+      <c r="Y629" s="47"/>
+      <c r="Z629" s="47"/>
+      <c r="AA629" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB629" s="47"/>
+      <c r="AC629" s="47"/>
+      <c r="AD629" s="47"/>
+      <c r="AE629" s="47"/>
+      <c r="AF629" s="47"/>
+      <c r="AG629" s="47"/>
+      <c r="AH629" s="47"/>
+      <c r="AI629" s="47"/>
+      <c r="AJ629" s="47"/>
+      <c r="AK629" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL629" s="47"/>
+      <c r="AM629" s="47"/>
+      <c r="AN629" s="47"/>
+      <c r="AO629" s="47"/>
+      <c r="AP629" s="47"/>
+      <c r="AQ629" s="47"/>
+      <c r="AR629" s="47"/>
+      <c r="AS629" s="47"/>
+      <c r="AT629" s="47"/>
+      <c r="AU629" s="47"/>
+      <c r="AV629" s="47"/>
+      <c r="AW629" s="47"/>
+      <c r="AX629" s="47"/>
+      <c r="AY629" s="47"/>
+      <c r="AZ629" s="47"/>
+      <c r="BA629" s="47"/>
+      <c r="BB629" s="47"/>
+      <c r="BC629" s="47"/>
+      <c r="BD629" s="47"/>
+      <c r="BE629" s="47"/>
+      <c r="BF629" s="47"/>
+      <c r="BG629" s="47"/>
+      <c r="BH629" s="47"/>
+      <c r="BI629" s="47"/>
+      <c r="BJ629" s="47"/>
+      <c r="BK629" s="47"/>
+      <c r="BL629" s="47"/>
+      <c r="BM629" s="47"/>
+      <c r="BN629" s="47"/>
+      <c r="BO629" s="47"/>
+      <c r="BP629" s="47"/>
+      <c r="BQ629" s="47"/>
+      <c r="BR629" s="47"/>
+      <c r="BS629" s="47"/>
+      <c r="BT629" s="47"/>
+      <c r="BU629" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV629" s="47"/>
+      <c r="BW629" s="47"/>
+      <c r="BX629" s="47"/>
+      <c r="BY629" s="47"/>
+      <c r="BZ629" s="47"/>
+      <c r="CA629" s="47"/>
+      <c r="CB629" s="47"/>
+      <c r="CC629" s="47"/>
+      <c r="CD629" s="47"/>
+    </row>
+    <row r="630" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I630" s="47"/>
+      <c r="J630" s="47"/>
+      <c r="K630" s="47"/>
+      <c r="L630" s="47"/>
+      <c r="M630" s="47"/>
+      <c r="N630" s="47"/>
+      <c r="O630" s="47"/>
+      <c r="P630" s="47"/>
+      <c r="Q630" s="47"/>
+      <c r="R630" s="47"/>
+      <c r="S630" s="47"/>
+      <c r="T630" s="47"/>
+      <c r="U630" s="47"/>
+      <c r="V630" s="47"/>
+      <c r="W630" s="47"/>
+      <c r="X630" s="47"/>
+      <c r="Y630" s="47"/>
+      <c r="Z630" s="47"/>
+      <c r="AA630" s="47"/>
+      <c r="AB630" s="47"/>
+      <c r="AC630" s="47"/>
+      <c r="AD630" s="47"/>
+      <c r="AE630" s="47"/>
+      <c r="AF630" s="47"/>
+      <c r="AG630" s="47"/>
+      <c r="AH630" s="47"/>
+      <c r="AI630" s="47"/>
+      <c r="AJ630" s="47"/>
+      <c r="AK630" s="47"/>
+      <c r="AL630" s="47"/>
+      <c r="AM630" s="47"/>
+      <c r="AN630" s="47"/>
+      <c r="AO630" s="47"/>
+      <c r="AP630" s="47"/>
+      <c r="AQ630" s="47"/>
+      <c r="AR630" s="47"/>
+      <c r="AS630" s="47"/>
+      <c r="AT630" s="47"/>
+      <c r="AU630" s="47"/>
+      <c r="AV630" s="47"/>
+      <c r="AW630" s="47"/>
+      <c r="AX630" s="47"/>
+      <c r="AY630" s="47"/>
+      <c r="AZ630" s="47"/>
+      <c r="BA630" s="47"/>
+      <c r="BB630" s="47"/>
+      <c r="BC630" s="47"/>
+      <c r="BD630" s="47"/>
+      <c r="BE630" s="47"/>
+      <c r="BF630" s="47"/>
+      <c r="BG630" s="47"/>
+      <c r="BH630" s="47"/>
+      <c r="BI630" s="47"/>
+      <c r="BJ630" s="47"/>
+      <c r="BK630" s="47"/>
+      <c r="BL630" s="47"/>
+      <c r="BM630" s="47"/>
+      <c r="BN630" s="47"/>
+      <c r="BO630" s="47"/>
+      <c r="BP630" s="47"/>
+      <c r="BQ630" s="47"/>
+      <c r="BR630" s="47"/>
+      <c r="BS630" s="47"/>
+      <c r="BT630" s="47"/>
+      <c r="BU630" s="47"/>
+      <c r="BV630" s="47"/>
+      <c r="BW630" s="47"/>
+      <c r="BX630" s="47"/>
+      <c r="BY630" s="47"/>
+      <c r="BZ630" s="47"/>
+      <c r="CA630" s="47"/>
+      <c r="CB630" s="47"/>
+      <c r="CC630" s="47"/>
+      <c r="CD630" s="47"/>
+    </row>
+    <row r="631" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I631" s="47"/>
+      <c r="J631" s="47"/>
+      <c r="K631" s="47"/>
+      <c r="L631" s="47"/>
+      <c r="M631" s="47"/>
+      <c r="N631" s="47"/>
+      <c r="O631" s="47"/>
+      <c r="P631" s="47"/>
+      <c r="Q631" s="47"/>
+      <c r="R631" s="47"/>
+      <c r="S631" s="47"/>
+      <c r="T631" s="47"/>
+      <c r="U631" s="47"/>
+      <c r="V631" s="47"/>
+      <c r="W631" s="47"/>
+      <c r="X631" s="47"/>
+      <c r="Y631" s="47"/>
+      <c r="Z631" s="47"/>
+      <c r="AA631" s="47"/>
+      <c r="AB631" s="47"/>
+      <c r="AC631" s="47"/>
+      <c r="AD631" s="47"/>
+      <c r="AE631" s="47"/>
+      <c r="AF631" s="47"/>
+      <c r="AG631" s="47"/>
+      <c r="AH631" s="47"/>
+      <c r="AI631" s="47"/>
+      <c r="AJ631" s="47"/>
+      <c r="AK631" s="47"/>
+      <c r="AL631" s="47"/>
+      <c r="AM631" s="47"/>
+      <c r="AN631" s="47"/>
+      <c r="AO631" s="47"/>
+      <c r="AP631" s="47"/>
+      <c r="AQ631" s="47"/>
+      <c r="AR631" s="47"/>
+      <c r="AS631" s="47"/>
+      <c r="AT631" s="47"/>
+      <c r="AU631" s="47"/>
+      <c r="AV631" s="47"/>
+      <c r="AW631" s="47"/>
+      <c r="AX631" s="47"/>
+      <c r="AY631" s="47"/>
+      <c r="AZ631" s="47"/>
+      <c r="BA631" s="47"/>
+      <c r="BB631" s="47"/>
+      <c r="BC631" s="47"/>
+      <c r="BD631" s="47"/>
+      <c r="BE631" s="47"/>
+      <c r="BF631" s="47"/>
+      <c r="BG631" s="47"/>
+      <c r="BH631" s="47"/>
+      <c r="BI631" s="47"/>
+      <c r="BJ631" s="47"/>
+      <c r="BK631" s="47"/>
+      <c r="BL631" s="47"/>
+      <c r="BM631" s="47"/>
+      <c r="BN631" s="47"/>
+      <c r="BO631" s="47"/>
+      <c r="BP631" s="47"/>
+      <c r="BQ631" s="47"/>
+      <c r="BR631" s="47"/>
+      <c r="BS631" s="47"/>
+      <c r="BT631" s="47"/>
+      <c r="BU631" s="47"/>
+      <c r="BV631" s="47"/>
+      <c r="BW631" s="47"/>
+      <c r="BX631" s="47"/>
+      <c r="BY631" s="47"/>
+      <c r="BZ631" s="47"/>
+      <c r="CA631" s="47"/>
+      <c r="CB631" s="47"/>
+      <c r="CC631" s="47"/>
+      <c r="CD631" s="47"/>
+    </row>
+    <row r="632" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I632" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J632" s="46"/>
+      <c r="K632" s="46"/>
+      <c r="L632" s="46"/>
+      <c r="M632" s="46"/>
+      <c r="N632" s="46"/>
+      <c r="O632" s="46"/>
+      <c r="P632" s="46"/>
+      <c r="Q632" s="46"/>
+      <c r="R632" s="46"/>
+      <c r="S632" s="46"/>
+      <c r="T632" s="46"/>
+      <c r="U632" s="46"/>
+      <c r="V632" s="46"/>
+      <c r="W632" s="46"/>
+      <c r="X632" s="46"/>
+      <c r="Y632" s="46"/>
+      <c r="Z632" s="46"/>
+      <c r="AA632" s="46"/>
+      <c r="AB632" s="46"/>
+      <c r="AC632" s="46"/>
+      <c r="AD632" s="46"/>
+      <c r="AE632" s="46"/>
+      <c r="AF632" s="46"/>
+      <c r="AG632" s="46"/>
+      <c r="AH632" s="46"/>
+      <c r="AI632" s="46"/>
+      <c r="AJ632" s="46"/>
+      <c r="AK632" s="46"/>
+      <c r="AL632" s="46"/>
+      <c r="AM632" s="46"/>
+      <c r="AN632" s="46"/>
+      <c r="AO632" s="46"/>
+      <c r="AP632" s="46"/>
+      <c r="AQ632" s="46"/>
+      <c r="AR632" s="46"/>
+      <c r="AS632" s="46"/>
+      <c r="AT632" s="46"/>
+      <c r="AU632" s="46"/>
+      <c r="AV632" s="46"/>
+      <c r="AW632" s="46"/>
+      <c r="AX632" s="46"/>
+      <c r="AY632" s="46"/>
+      <c r="AZ632" s="46"/>
+      <c r="BA632" s="46"/>
+      <c r="BB632" s="46"/>
+      <c r="BC632" s="46"/>
+      <c r="BD632" s="46"/>
+      <c r="BE632" s="46"/>
+      <c r="BF632" s="46"/>
+      <c r="BG632" s="46"/>
+      <c r="BH632" s="46"/>
+      <c r="BI632" s="46"/>
+      <c r="BJ632" s="46"/>
+      <c r="BK632" s="46"/>
+      <c r="BL632" s="46"/>
+      <c r="BM632" s="46"/>
+      <c r="BN632" s="46"/>
+      <c r="BO632" s="46"/>
+      <c r="BP632" s="46"/>
+      <c r="BQ632" s="46"/>
+      <c r="BR632" s="46"/>
+      <c r="BS632" s="46"/>
+      <c r="BT632" s="46"/>
+      <c r="BU632" s="46"/>
+      <c r="BV632" s="46"/>
+      <c r="BW632" s="46"/>
+      <c r="BX632" s="46"/>
+      <c r="BY632" s="46"/>
+      <c r="BZ632" s="46"/>
+      <c r="CA632" s="46"/>
+      <c r="CB632" s="46"/>
+      <c r="CC632" s="46"/>
+      <c r="CD632" s="46"/>
+    </row>
+    <row r="633" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I633" s="46"/>
+      <c r="J633" s="46"/>
+      <c r="K633" s="46"/>
+      <c r="L633" s="46"/>
+      <c r="M633" s="46"/>
+      <c r="N633" s="46"/>
+      <c r="O633" s="46"/>
+      <c r="P633" s="46"/>
+      <c r="Q633" s="46"/>
+      <c r="R633" s="46"/>
+      <c r="S633" s="46"/>
+      <c r="T633" s="46"/>
+      <c r="U633" s="46"/>
+      <c r="V633" s="46"/>
+      <c r="W633" s="46"/>
+      <c r="X633" s="46"/>
+      <c r="Y633" s="46"/>
+      <c r="Z633" s="46"/>
+      <c r="AA633" s="46"/>
+      <c r="AB633" s="46"/>
+      <c r="AC633" s="46"/>
+      <c r="AD633" s="46"/>
+      <c r="AE633" s="46"/>
+      <c r="AF633" s="46"/>
+      <c r="AG633" s="46"/>
+      <c r="AH633" s="46"/>
+      <c r="AI633" s="46"/>
+      <c r="AJ633" s="46"/>
+      <c r="AK633" s="46"/>
+      <c r="AL633" s="46"/>
+      <c r="AM633" s="46"/>
+      <c r="AN633" s="46"/>
+      <c r="AO633" s="46"/>
+      <c r="AP633" s="46"/>
+      <c r="AQ633" s="46"/>
+      <c r="AR633" s="46"/>
+      <c r="AS633" s="46"/>
+      <c r="AT633" s="46"/>
+      <c r="AU633" s="46"/>
+      <c r="AV633" s="46"/>
+      <c r="AW633" s="46"/>
+      <c r="AX633" s="46"/>
+      <c r="AY633" s="46"/>
+      <c r="AZ633" s="46"/>
+      <c r="BA633" s="46"/>
+      <c r="BB633" s="46"/>
+      <c r="BC633" s="46"/>
+      <c r="BD633" s="46"/>
+      <c r="BE633" s="46"/>
+      <c r="BF633" s="46"/>
+      <c r="BG633" s="46"/>
+      <c r="BH633" s="46"/>
+      <c r="BI633" s="46"/>
+      <c r="BJ633" s="46"/>
+      <c r="BK633" s="46"/>
+      <c r="BL633" s="46"/>
+      <c r="BM633" s="46"/>
+      <c r="BN633" s="46"/>
+      <c r="BO633" s="46"/>
+      <c r="BP633" s="46"/>
+      <c r="BQ633" s="46"/>
+      <c r="BR633" s="46"/>
+      <c r="BS633" s="46"/>
+      <c r="BT633" s="46"/>
+      <c r="BU633" s="46"/>
+      <c r="BV633" s="46"/>
+      <c r="BW633" s="46"/>
+      <c r="BX633" s="46"/>
+      <c r="BY633" s="46"/>
+      <c r="BZ633" s="46"/>
+      <c r="CA633" s="46"/>
+      <c r="CB633" s="46"/>
+      <c r="CC633" s="46"/>
+      <c r="CD633" s="46"/>
+    </row>
+    <row r="634" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I634" s="49"/>
+      <c r="J634" s="49"/>
+      <c r="K634" s="49"/>
+      <c r="L634" s="49"/>
+      <c r="M634" s="49"/>
+      <c r="N634" s="49"/>
+      <c r="O634" s="49"/>
+      <c r="P634" s="49"/>
+      <c r="Q634" s="49"/>
+      <c r="R634" s="49"/>
+      <c r="S634" s="49"/>
+      <c r="T634" s="49"/>
+      <c r="U634" s="49"/>
+      <c r="V634" s="49"/>
+      <c r="W634" s="49"/>
+      <c r="X634" s="49"/>
+      <c r="Y634" s="49"/>
+      <c r="Z634" s="49"/>
+      <c r="AA634" s="49"/>
+      <c r="AB634" s="49"/>
+      <c r="AC634" s="49"/>
+      <c r="AD634" s="49"/>
+      <c r="AE634" s="49"/>
+      <c r="AF634" s="49"/>
+      <c r="AG634" s="49"/>
+      <c r="AH634" s="49"/>
+      <c r="AI634" s="49"/>
+      <c r="AJ634" s="49"/>
+      <c r="AK634" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL634" s="51"/>
+      <c r="AM634" s="51"/>
+      <c r="AN634" s="51"/>
+      <c r="AO634" s="51"/>
+      <c r="AP634" s="51"/>
+      <c r="AQ634" s="51"/>
+      <c r="AR634" s="51"/>
+      <c r="AS634" s="51"/>
+      <c r="AT634" s="51"/>
+      <c r="AU634" s="51"/>
+      <c r="AV634" s="51"/>
+      <c r="AW634" s="51"/>
+      <c r="AX634" s="51"/>
+      <c r="AY634" s="51"/>
+      <c r="AZ634" s="51"/>
+      <c r="BA634" s="51"/>
+      <c r="BB634" s="51"/>
+      <c r="BC634" s="51"/>
+      <c r="BD634" s="51"/>
+      <c r="BE634" s="51"/>
+      <c r="BF634" s="51"/>
+      <c r="BG634" s="51"/>
+      <c r="BH634" s="51"/>
+      <c r="BI634" s="51"/>
+      <c r="BJ634" s="51"/>
+      <c r="BK634" s="51"/>
+      <c r="BL634" s="51"/>
+      <c r="BM634" s="51"/>
+      <c r="BN634" s="51"/>
+      <c r="BO634" s="51"/>
+      <c r="BP634" s="51"/>
+      <c r="BQ634" s="51"/>
+      <c r="BR634" s="51"/>
+      <c r="BS634" s="51"/>
+      <c r="BT634" s="51"/>
+      <c r="BU634" s="51"/>
+      <c r="BV634" s="51"/>
+      <c r="BW634" s="51"/>
+      <c r="BX634" s="51"/>
+      <c r="BY634" s="51"/>
+      <c r="BZ634" s="51"/>
+      <c r="CA634" s="51"/>
+      <c r="CB634" s="51"/>
+      <c r="CC634" s="51"/>
+      <c r="CD634" s="51"/>
+    </row>
+    <row r="635" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I635" s="49"/>
+      <c r="J635" s="49"/>
+      <c r="K635" s="49"/>
+      <c r="L635" s="49"/>
+      <c r="M635" s="49"/>
+      <c r="N635" s="49"/>
+      <c r="O635" s="49"/>
+      <c r="P635" s="49"/>
+      <c r="Q635" s="49"/>
+      <c r="R635" s="49"/>
+      <c r="S635" s="49"/>
+      <c r="T635" s="49"/>
+      <c r="U635" s="49"/>
+      <c r="V635" s="49"/>
+      <c r="W635" s="49"/>
+      <c r="X635" s="49"/>
+      <c r="Y635" s="49"/>
+      <c r="Z635" s="49"/>
+      <c r="AA635" s="49"/>
+      <c r="AB635" s="49"/>
+      <c r="AC635" s="49"/>
+      <c r="AD635" s="49"/>
+      <c r="AE635" s="49"/>
+      <c r="AF635" s="49"/>
+      <c r="AG635" s="49"/>
+      <c r="AH635" s="49"/>
+      <c r="AI635" s="49"/>
+      <c r="AJ635" s="49"/>
+      <c r="AK635" s="51"/>
+      <c r="AL635" s="51"/>
+      <c r="AM635" s="51"/>
+      <c r="AN635" s="51"/>
+      <c r="AO635" s="51"/>
+      <c r="AP635" s="51"/>
+      <c r="AQ635" s="51"/>
+      <c r="AR635" s="51"/>
+      <c r="AS635" s="51"/>
+      <c r="AT635" s="51"/>
+      <c r="AU635" s="51"/>
+      <c r="AV635" s="51"/>
+      <c r="AW635" s="51"/>
+      <c r="AX635" s="51"/>
+      <c r="AY635" s="51"/>
+      <c r="AZ635" s="51"/>
+      <c r="BA635" s="51"/>
+      <c r="BB635" s="51"/>
+      <c r="BC635" s="51"/>
+      <c r="BD635" s="51"/>
+      <c r="BE635" s="51"/>
+      <c r="BF635" s="51"/>
+      <c r="BG635" s="51"/>
+      <c r="BH635" s="51"/>
+      <c r="BI635" s="51"/>
+      <c r="BJ635" s="51"/>
+      <c r="BK635" s="51"/>
+      <c r="BL635" s="51"/>
+      <c r="BM635" s="51"/>
+      <c r="BN635" s="51"/>
+      <c r="BO635" s="51"/>
+      <c r="BP635" s="51"/>
+      <c r="BQ635" s="51"/>
+      <c r="BR635" s="51"/>
+      <c r="BS635" s="51"/>
+      <c r="BT635" s="51"/>
+      <c r="BU635" s="51"/>
+      <c r="BV635" s="51"/>
+      <c r="BW635" s="51"/>
+      <c r="BX635" s="51"/>
+      <c r="BY635" s="51"/>
+      <c r="BZ635" s="51"/>
+      <c r="CA635" s="51"/>
+      <c r="CB635" s="51"/>
+      <c r="CC635" s="51"/>
+      <c r="CD635" s="51"/>
+    </row>
+    <row r="636" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I636" s="49"/>
+      <c r="J636" s="49"/>
+      <c r="K636" s="49"/>
+      <c r="L636" s="49"/>
+      <c r="M636" s="49"/>
+      <c r="N636" s="49"/>
+      <c r="O636" s="49"/>
+      <c r="P636" s="49"/>
+      <c r="Q636" s="49"/>
+      <c r="R636" s="49"/>
+      <c r="S636" s="49"/>
+      <c r="T636" s="49"/>
+      <c r="U636" s="49"/>
+      <c r="V636" s="49"/>
+      <c r="W636" s="49"/>
+      <c r="X636" s="49"/>
+      <c r="Y636" s="49"/>
+      <c r="Z636" s="49"/>
+      <c r="AA636" s="49"/>
+      <c r="AB636" s="49"/>
+      <c r="AC636" s="49"/>
+      <c r="AD636" s="49"/>
+      <c r="AE636" s="49"/>
+      <c r="AF636" s="49"/>
+      <c r="AG636" s="49"/>
+      <c r="AH636" s="49"/>
+      <c r="AI636" s="49"/>
+      <c r="AJ636" s="49"/>
+      <c r="AK636" s="51"/>
+      <c r="AL636" s="51"/>
+      <c r="AM636" s="51"/>
+      <c r="AN636" s="51"/>
+      <c r="AO636" s="51"/>
+      <c r="AP636" s="51"/>
+      <c r="AQ636" s="51"/>
+      <c r="AR636" s="51"/>
+      <c r="AS636" s="51"/>
+      <c r="AT636" s="51"/>
+      <c r="AU636" s="51"/>
+      <c r="AV636" s="51"/>
+      <c r="AW636" s="51"/>
+      <c r="AX636" s="51"/>
+      <c r="AY636" s="51"/>
+      <c r="AZ636" s="51"/>
+      <c r="BA636" s="51"/>
+      <c r="BB636" s="51"/>
+      <c r="BC636" s="51"/>
+      <c r="BD636" s="51"/>
+      <c r="BE636" s="51"/>
+      <c r="BF636" s="51"/>
+      <c r="BG636" s="51"/>
+      <c r="BH636" s="51"/>
+      <c r="BI636" s="51"/>
+      <c r="BJ636" s="51"/>
+      <c r="BK636" s="51"/>
+      <c r="BL636" s="51"/>
+      <c r="BM636" s="51"/>
+      <c r="BN636" s="51"/>
+      <c r="BO636" s="51"/>
+      <c r="BP636" s="51"/>
+      <c r="BQ636" s="51"/>
+      <c r="BR636" s="51"/>
+      <c r="BS636" s="51"/>
+      <c r="BT636" s="51"/>
+      <c r="BU636" s="51"/>
+      <c r="BV636" s="51"/>
+      <c r="BW636" s="51"/>
+      <c r="BX636" s="51"/>
+      <c r="BY636" s="51"/>
+      <c r="BZ636" s="51"/>
+      <c r="CA636" s="51"/>
+      <c r="CB636" s="51"/>
+      <c r="CC636" s="51"/>
+      <c r="CD636" s="51"/>
+    </row>
+    <row r="637" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I637" s="49"/>
+      <c r="J637" s="49"/>
+      <c r="K637" s="49"/>
+      <c r="L637" s="49"/>
+      <c r="M637" s="49"/>
+      <c r="N637" s="49"/>
+      <c r="O637" s="49"/>
+      <c r="P637" s="49"/>
+      <c r="Q637" s="49"/>
+      <c r="R637" s="49"/>
+      <c r="S637" s="49"/>
+      <c r="T637" s="49"/>
+      <c r="U637" s="49"/>
+      <c r="V637" s="49"/>
+      <c r="W637" s="49"/>
+      <c r="X637" s="49"/>
+      <c r="Y637" s="49"/>
+      <c r="Z637" s="49"/>
+      <c r="AA637" s="49"/>
+      <c r="AB637" s="49"/>
+      <c r="AC637" s="49"/>
+      <c r="AD637" s="49"/>
+      <c r="AE637" s="49"/>
+      <c r="AF637" s="49"/>
+      <c r="AG637" s="49"/>
+      <c r="AH637" s="49"/>
+      <c r="AI637" s="49"/>
+      <c r="AJ637" s="49"/>
+      <c r="AK637" s="51"/>
+      <c r="AL637" s="51"/>
+      <c r="AM637" s="51"/>
+      <c r="AN637" s="51"/>
+      <c r="AO637" s="51"/>
+      <c r="AP637" s="51"/>
+      <c r="AQ637" s="51"/>
+      <c r="AR637" s="51"/>
+      <c r="AS637" s="51"/>
+      <c r="AT637" s="51"/>
+      <c r="AU637" s="51"/>
+      <c r="AV637" s="51"/>
+      <c r="AW637" s="51"/>
+      <c r="AX637" s="51"/>
+      <c r="AY637" s="51"/>
+      <c r="AZ637" s="51"/>
+      <c r="BA637" s="51"/>
+      <c r="BB637" s="51"/>
+      <c r="BC637" s="51"/>
+      <c r="BD637" s="51"/>
+      <c r="BE637" s="51"/>
+      <c r="BF637" s="51"/>
+      <c r="BG637" s="51"/>
+      <c r="BH637" s="51"/>
+      <c r="BI637" s="51"/>
+      <c r="BJ637" s="51"/>
+      <c r="BK637" s="51"/>
+      <c r="BL637" s="51"/>
+      <c r="BM637" s="51"/>
+      <c r="BN637" s="51"/>
+      <c r="BO637" s="51"/>
+      <c r="BP637" s="51"/>
+      <c r="BQ637" s="51"/>
+      <c r="BR637" s="51"/>
+      <c r="BS637" s="51"/>
+      <c r="BT637" s="51"/>
+      <c r="BU637" s="51"/>
+      <c r="BV637" s="51"/>
+      <c r="BW637" s="51"/>
+      <c r="BX637" s="51"/>
+      <c r="BY637" s="51"/>
+      <c r="BZ637" s="51"/>
+      <c r="CA637" s="51"/>
+      <c r="CB637" s="51"/>
+      <c r="CC637" s="51"/>
+      <c r="CD637" s="51"/>
+    </row>
+    <row r="638" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I638" s="49"/>
+      <c r="J638" s="49"/>
+      <c r="K638" s="49"/>
+      <c r="L638" s="49"/>
+      <c r="M638" s="49"/>
+      <c r="N638" s="49"/>
+      <c r="O638" s="49"/>
+      <c r="P638" s="49"/>
+      <c r="Q638" s="49"/>
+      <c r="R638" s="49"/>
+      <c r="S638" s="49"/>
+      <c r="T638" s="49"/>
+      <c r="U638" s="49"/>
+      <c r="V638" s="49"/>
+      <c r="W638" s="49"/>
+      <c r="X638" s="49"/>
+      <c r="Y638" s="49"/>
+      <c r="Z638" s="49"/>
+      <c r="AA638" s="49"/>
+      <c r="AB638" s="49"/>
+      <c r="AC638" s="49"/>
+      <c r="AD638" s="49"/>
+      <c r="AE638" s="49"/>
+      <c r="AF638" s="49"/>
+      <c r="AG638" s="49"/>
+      <c r="AH638" s="49"/>
+      <c r="AI638" s="49"/>
+      <c r="AJ638" s="49"/>
+      <c r="AK638" s="51"/>
+      <c r="AL638" s="51"/>
+      <c r="AM638" s="51"/>
+      <c r="AN638" s="51"/>
+      <c r="AO638" s="51"/>
+      <c r="AP638" s="51"/>
+      <c r="AQ638" s="51"/>
+      <c r="AR638" s="51"/>
+      <c r="AS638" s="51"/>
+      <c r="AT638" s="51"/>
+      <c r="AU638" s="51"/>
+      <c r="AV638" s="51"/>
+      <c r="AW638" s="51"/>
+      <c r="AX638" s="51"/>
+      <c r="AY638" s="51"/>
+      <c r="AZ638" s="51"/>
+      <c r="BA638" s="51"/>
+      <c r="BB638" s="51"/>
+      <c r="BC638" s="51"/>
+      <c r="BD638" s="51"/>
+      <c r="BE638" s="51"/>
+      <c r="BF638" s="51"/>
+      <c r="BG638" s="51"/>
+      <c r="BH638" s="51"/>
+      <c r="BI638" s="51"/>
+      <c r="BJ638" s="51"/>
+      <c r="BK638" s="51"/>
+      <c r="BL638" s="51"/>
+      <c r="BM638" s="51"/>
+      <c r="BN638" s="51"/>
+      <c r="BO638" s="51"/>
+      <c r="BP638" s="51"/>
+      <c r="BQ638" s="51"/>
+      <c r="BR638" s="51"/>
+      <c r="BS638" s="51"/>
+      <c r="BT638" s="51"/>
+      <c r="BU638" s="51"/>
+      <c r="BV638" s="51"/>
+      <c r="BW638" s="51"/>
+      <c r="BX638" s="51"/>
+      <c r="BY638" s="51"/>
+      <c r="BZ638" s="51"/>
+      <c r="CA638" s="51"/>
+      <c r="CB638" s="51"/>
+      <c r="CC638" s="51"/>
+      <c r="CD638" s="51"/>
+    </row>
+    <row r="639" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I639" s="49"/>
+      <c r="J639" s="49"/>
+      <c r="K639" s="49"/>
+      <c r="L639" s="49"/>
+      <c r="M639" s="49"/>
+      <c r="N639" s="49"/>
+      <c r="O639" s="49"/>
+      <c r="P639" s="49"/>
+      <c r="Q639" s="49"/>
+      <c r="R639" s="49"/>
+      <c r="S639" s="49"/>
+      <c r="T639" s="49"/>
+      <c r="U639" s="49"/>
+      <c r="V639" s="49"/>
+      <c r="W639" s="49"/>
+      <c r="X639" s="49"/>
+      <c r="Y639" s="49"/>
+      <c r="Z639" s="49"/>
+      <c r="AA639" s="49"/>
+      <c r="AB639" s="49"/>
+      <c r="AC639" s="49"/>
+      <c r="AD639" s="49"/>
+      <c r="AE639" s="49"/>
+      <c r="AF639" s="49"/>
+      <c r="AG639" s="49"/>
+      <c r="AH639" s="49"/>
+      <c r="AI639" s="49"/>
+      <c r="AJ639" s="49"/>
+      <c r="AK639" s="51"/>
+      <c r="AL639" s="51"/>
+      <c r="AM639" s="51"/>
+      <c r="AN639" s="51"/>
+      <c r="AO639" s="51"/>
+      <c r="AP639" s="51"/>
+      <c r="AQ639" s="51"/>
+      <c r="AR639" s="51"/>
+      <c r="AS639" s="51"/>
+      <c r="AT639" s="51"/>
+      <c r="AU639" s="51"/>
+      <c r="AV639" s="51"/>
+      <c r="AW639" s="51"/>
+      <c r="AX639" s="51"/>
+      <c r="AY639" s="51"/>
+      <c r="AZ639" s="51"/>
+      <c r="BA639" s="51"/>
+      <c r="BB639" s="51"/>
+      <c r="BC639" s="51"/>
+      <c r="BD639" s="51"/>
+      <c r="BE639" s="51"/>
+      <c r="BF639" s="51"/>
+      <c r="BG639" s="51"/>
+      <c r="BH639" s="51"/>
+      <c r="BI639" s="51"/>
+      <c r="BJ639" s="51"/>
+      <c r="BK639" s="51"/>
+      <c r="BL639" s="51"/>
+      <c r="BM639" s="51"/>
+      <c r="BN639" s="51"/>
+      <c r="BO639" s="51"/>
+      <c r="BP639" s="51"/>
+      <c r="BQ639" s="51"/>
+      <c r="BR639" s="51"/>
+      <c r="BS639" s="51"/>
+      <c r="BT639" s="51"/>
+      <c r="BU639" s="51"/>
+      <c r="BV639" s="51"/>
+      <c r="BW639" s="51"/>
+      <c r="BX639" s="51"/>
+      <c r="BY639" s="51"/>
+      <c r="BZ639" s="51"/>
+      <c r="CA639" s="51"/>
+      <c r="CB639" s="51"/>
+      <c r="CC639" s="51"/>
+      <c r="CD639" s="51"/>
+    </row>
+    <row r="640" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I640" s="49"/>
+      <c r="J640" s="49"/>
+      <c r="K640" s="49"/>
+      <c r="L640" s="49"/>
+      <c r="M640" s="49"/>
+      <c r="N640" s="49"/>
+      <c r="O640" s="49"/>
+      <c r="P640" s="49"/>
+      <c r="Q640" s="49"/>
+      <c r="R640" s="49"/>
+      <c r="S640" s="49"/>
+      <c r="T640" s="49"/>
+      <c r="U640" s="49"/>
+      <c r="V640" s="49"/>
+      <c r="W640" s="49"/>
+      <c r="X640" s="49"/>
+      <c r="Y640" s="49"/>
+      <c r="Z640" s="49"/>
+      <c r="AA640" s="49"/>
+      <c r="AB640" s="49"/>
+      <c r="AC640" s="49"/>
+      <c r="AD640" s="49"/>
+      <c r="AE640" s="49"/>
+      <c r="AF640" s="49"/>
+      <c r="AG640" s="49"/>
+      <c r="AH640" s="49"/>
+      <c r="AI640" s="49"/>
+      <c r="AJ640" s="49"/>
+      <c r="AK640" s="51"/>
+      <c r="AL640" s="51"/>
+      <c r="AM640" s="51"/>
+      <c r="AN640" s="51"/>
+      <c r="AO640" s="51"/>
+      <c r="AP640" s="51"/>
+      <c r="AQ640" s="51"/>
+      <c r="AR640" s="51"/>
+      <c r="AS640" s="51"/>
+      <c r="AT640" s="51"/>
+      <c r="AU640" s="51"/>
+      <c r="AV640" s="51"/>
+      <c r="AW640" s="51"/>
+      <c r="AX640" s="51"/>
+      <c r="AY640" s="51"/>
+      <c r="AZ640" s="51"/>
+      <c r="BA640" s="51"/>
+      <c r="BB640" s="51"/>
+      <c r="BC640" s="51"/>
+      <c r="BD640" s="51"/>
+      <c r="BE640" s="51"/>
+      <c r="BF640" s="51"/>
+      <c r="BG640" s="51"/>
+      <c r="BH640" s="51"/>
+      <c r="BI640" s="51"/>
+      <c r="BJ640" s="51"/>
+      <c r="BK640" s="51"/>
+      <c r="BL640" s="51"/>
+      <c r="BM640" s="51"/>
+      <c r="BN640" s="51"/>
+      <c r="BO640" s="51"/>
+      <c r="BP640" s="51"/>
+      <c r="BQ640" s="51"/>
+      <c r="BR640" s="51"/>
+      <c r="BS640" s="51"/>
+      <c r="BT640" s="51"/>
+      <c r="BU640" s="51"/>
+      <c r="BV640" s="51"/>
+      <c r="BW640" s="51"/>
+      <c r="BX640" s="51"/>
+      <c r="BY640" s="51"/>
+      <c r="BZ640" s="51"/>
+      <c r="CA640" s="51"/>
+      <c r="CB640" s="51"/>
+      <c r="CC640" s="51"/>
+      <c r="CD640" s="51"/>
+    </row>
+    <row r="641" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I641" s="49"/>
+      <c r="J641" s="49"/>
+      <c r="K641" s="49"/>
+      <c r="L641" s="49"/>
+      <c r="M641" s="49"/>
+      <c r="N641" s="49"/>
+      <c r="O641" s="49"/>
+      <c r="P641" s="49"/>
+      <c r="Q641" s="49"/>
+      <c r="R641" s="49"/>
+      <c r="S641" s="49"/>
+      <c r="T641" s="49"/>
+      <c r="U641" s="49"/>
+      <c r="V641" s="49"/>
+      <c r="W641" s="49"/>
+      <c r="X641" s="49"/>
+      <c r="Y641" s="49"/>
+      <c r="Z641" s="49"/>
+      <c r="AA641" s="49"/>
+      <c r="AB641" s="49"/>
+      <c r="AC641" s="49"/>
+      <c r="AD641" s="49"/>
+      <c r="AE641" s="49"/>
+      <c r="AF641" s="49"/>
+      <c r="AG641" s="49"/>
+      <c r="AH641" s="49"/>
+      <c r="AI641" s="49"/>
+      <c r="AJ641" s="49"/>
+      <c r="AK641" s="51"/>
+      <c r="AL641" s="51"/>
+      <c r="AM641" s="51"/>
+      <c r="AN641" s="51"/>
+      <c r="AO641" s="51"/>
+      <c r="AP641" s="51"/>
+      <c r="AQ641" s="51"/>
+      <c r="AR641" s="51"/>
+      <c r="AS641" s="51"/>
+      <c r="AT641" s="51"/>
+      <c r="AU641" s="51"/>
+      <c r="AV641" s="51"/>
+      <c r="AW641" s="51"/>
+      <c r="AX641" s="51"/>
+      <c r="AY641" s="51"/>
+      <c r="AZ641" s="51"/>
+      <c r="BA641" s="51"/>
+      <c r="BB641" s="51"/>
+      <c r="BC641" s="51"/>
+      <c r="BD641" s="51"/>
+      <c r="BE641" s="51"/>
+      <c r="BF641" s="51"/>
+      <c r="BG641" s="51"/>
+      <c r="BH641" s="51"/>
+      <c r="BI641" s="51"/>
+      <c r="BJ641" s="51"/>
+      <c r="BK641" s="51"/>
+      <c r="BL641" s="51"/>
+      <c r="BM641" s="51"/>
+      <c r="BN641" s="51"/>
+      <c r="BO641" s="51"/>
+      <c r="BP641" s="51"/>
+      <c r="BQ641" s="51"/>
+      <c r="BR641" s="51"/>
+      <c r="BS641" s="51"/>
+      <c r="BT641" s="51"/>
+      <c r="BU641" s="51"/>
+      <c r="BV641" s="51"/>
+      <c r="BW641" s="51"/>
+      <c r="BX641" s="51"/>
+      <c r="BY641" s="51"/>
+      <c r="BZ641" s="51"/>
+      <c r="CA641" s="51"/>
+      <c r="CB641" s="51"/>
+      <c r="CC641" s="51"/>
+      <c r="CD641" s="51"/>
+    </row>
+    <row r="642" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I642" s="49"/>
+      <c r="J642" s="49"/>
+      <c r="K642" s="49"/>
+      <c r="L642" s="49"/>
+      <c r="M642" s="49"/>
+      <c r="N642" s="49"/>
+      <c r="O642" s="49"/>
+      <c r="P642" s="49"/>
+      <c r="Q642" s="49"/>
+      <c r="R642" s="49"/>
+      <c r="S642" s="49"/>
+      <c r="T642" s="49"/>
+      <c r="U642" s="49"/>
+      <c r="V642" s="49"/>
+      <c r="W642" s="49"/>
+      <c r="X642" s="49"/>
+      <c r="Y642" s="49"/>
+      <c r="Z642" s="49"/>
+      <c r="AA642" s="49"/>
+      <c r="AB642" s="49"/>
+      <c r="AC642" s="49"/>
+      <c r="AD642" s="49"/>
+      <c r="AE642" s="49"/>
+      <c r="AF642" s="49"/>
+      <c r="AG642" s="49"/>
+      <c r="AH642" s="49"/>
+      <c r="AI642" s="49"/>
+      <c r="AJ642" s="49"/>
+      <c r="AK642" s="51"/>
+      <c r="AL642" s="51"/>
+      <c r="AM642" s="51"/>
+      <c r="AN642" s="51"/>
+      <c r="AO642" s="51"/>
+      <c r="AP642" s="51"/>
+      <c r="AQ642" s="51"/>
+      <c r="AR642" s="51"/>
+      <c r="AS642" s="51"/>
+      <c r="AT642" s="51"/>
+      <c r="AU642" s="51"/>
+      <c r="AV642" s="51"/>
+      <c r="AW642" s="51"/>
+      <c r="AX642" s="51"/>
+      <c r="AY642" s="51"/>
+      <c r="AZ642" s="51"/>
+      <c r="BA642" s="51"/>
+      <c r="BB642" s="51"/>
+      <c r="BC642" s="51"/>
+      <c r="BD642" s="51"/>
+      <c r="BE642" s="51"/>
+      <c r="BF642" s="51"/>
+      <c r="BG642" s="51"/>
+      <c r="BH642" s="51"/>
+      <c r="BI642" s="51"/>
+      <c r="BJ642" s="51"/>
+      <c r="BK642" s="51"/>
+      <c r="BL642" s="51"/>
+      <c r="BM642" s="51"/>
+      <c r="BN642" s="51"/>
+      <c r="BO642" s="51"/>
+      <c r="BP642" s="51"/>
+      <c r="BQ642" s="51"/>
+      <c r="BR642" s="51"/>
+      <c r="BS642" s="51"/>
+      <c r="BT642" s="51"/>
+      <c r="BU642" s="51"/>
+      <c r="BV642" s="51"/>
+      <c r="BW642" s="51"/>
+      <c r="BX642" s="51"/>
+      <c r="BY642" s="51"/>
+      <c r="BZ642" s="51"/>
+      <c r="CA642" s="51"/>
+      <c r="CB642" s="51"/>
+      <c r="CC642" s="51"/>
+      <c r="CD642" s="51"/>
+    </row>
+    <row r="643" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I643" s="49"/>
+      <c r="J643" s="49"/>
+      <c r="K643" s="49"/>
+      <c r="L643" s="49"/>
+      <c r="M643" s="49"/>
+      <c r="N643" s="49"/>
+      <c r="O643" s="49"/>
+      <c r="P643" s="49"/>
+      <c r="Q643" s="49"/>
+      <c r="R643" s="49"/>
+      <c r="S643" s="49"/>
+      <c r="T643" s="49"/>
+      <c r="U643" s="49"/>
+      <c r="V643" s="49"/>
+      <c r="W643" s="49"/>
+      <c r="X643" s="49"/>
+      <c r="Y643" s="49"/>
+      <c r="Z643" s="49"/>
+      <c r="AA643" s="49"/>
+      <c r="AB643" s="49"/>
+      <c r="AC643" s="49"/>
+      <c r="AD643" s="49"/>
+      <c r="AE643" s="49"/>
+      <c r="AF643" s="49"/>
+      <c r="AG643" s="49"/>
+      <c r="AH643" s="49"/>
+      <c r="AI643" s="49"/>
+      <c r="AJ643" s="49"/>
+      <c r="AK643" s="51"/>
+      <c r="AL643" s="51"/>
+      <c r="AM643" s="51"/>
+      <c r="AN643" s="51"/>
+      <c r="AO643" s="51"/>
+      <c r="AP643" s="51"/>
+      <c r="AQ643" s="51"/>
+      <c r="AR643" s="51"/>
+      <c r="AS643" s="51"/>
+      <c r="AT643" s="51"/>
+      <c r="AU643" s="51"/>
+      <c r="AV643" s="51"/>
+      <c r="AW643" s="51"/>
+      <c r="AX643" s="51"/>
+      <c r="AY643" s="51"/>
+      <c r="AZ643" s="51"/>
+      <c r="BA643" s="51"/>
+      <c r="BB643" s="51"/>
+      <c r="BC643" s="51"/>
+      <c r="BD643" s="51"/>
+      <c r="BE643" s="51"/>
+      <c r="BF643" s="51"/>
+      <c r="BG643" s="51"/>
+      <c r="BH643" s="51"/>
+      <c r="BI643" s="51"/>
+      <c r="BJ643" s="51"/>
+      <c r="BK643" s="51"/>
+      <c r="BL643" s="51"/>
+      <c r="BM643" s="51"/>
+      <c r="BN643" s="51"/>
+      <c r="BO643" s="51"/>
+      <c r="BP643" s="51"/>
+      <c r="BQ643" s="51"/>
+      <c r="BR643" s="51"/>
+      <c r="BS643" s="51"/>
+      <c r="BT643" s="51"/>
+      <c r="BU643" s="51"/>
+      <c r="BV643" s="51"/>
+      <c r="BW643" s="51"/>
+      <c r="BX643" s="51"/>
+      <c r="BY643" s="51"/>
+      <c r="BZ643" s="51"/>
+      <c r="CA643" s="51"/>
+      <c r="CB643" s="51"/>
+      <c r="CC643" s="51"/>
+      <c r="CD643" s="51"/>
+    </row>
+    <row r="644" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I644" s="49"/>
+      <c r="J644" s="49"/>
+      <c r="K644" s="49"/>
+      <c r="L644" s="49"/>
+      <c r="M644" s="49"/>
+      <c r="N644" s="49"/>
+      <c r="O644" s="49"/>
+      <c r="P644" s="49"/>
+      <c r="Q644" s="49"/>
+      <c r="R644" s="49"/>
+      <c r="S644" s="49"/>
+      <c r="T644" s="49"/>
+      <c r="U644" s="49"/>
+      <c r="V644" s="49"/>
+      <c r="W644" s="49"/>
+      <c r="X644" s="49"/>
+      <c r="Y644" s="49"/>
+      <c r="Z644" s="49"/>
+      <c r="AA644" s="49"/>
+      <c r="AB644" s="49"/>
+      <c r="AC644" s="49"/>
+      <c r="AD644" s="49"/>
+      <c r="AE644" s="49"/>
+      <c r="AF644" s="49"/>
+      <c r="AG644" s="49"/>
+      <c r="AH644" s="49"/>
+      <c r="AI644" s="49"/>
+      <c r="AJ644" s="49"/>
+      <c r="AK644" s="51"/>
+      <c r="AL644" s="51"/>
+      <c r="AM644" s="51"/>
+      <c r="AN644" s="51"/>
+      <c r="AO644" s="51"/>
+      <c r="AP644" s="51"/>
+      <c r="AQ644" s="51"/>
+      <c r="AR644" s="51"/>
+      <c r="AS644" s="51"/>
+      <c r="AT644" s="51"/>
+      <c r="AU644" s="51"/>
+      <c r="AV644" s="51"/>
+      <c r="AW644" s="51"/>
+      <c r="AX644" s="51"/>
+      <c r="AY644" s="51"/>
+      <c r="AZ644" s="51"/>
+      <c r="BA644" s="51"/>
+      <c r="BB644" s="51"/>
+      <c r="BC644" s="51"/>
+      <c r="BD644" s="51"/>
+      <c r="BE644" s="51"/>
+      <c r="BF644" s="51"/>
+      <c r="BG644" s="51"/>
+      <c r="BH644" s="51"/>
+      <c r="BI644" s="51"/>
+      <c r="BJ644" s="51"/>
+      <c r="BK644" s="51"/>
+      <c r="BL644" s="51"/>
+      <c r="BM644" s="51"/>
+      <c r="BN644" s="51"/>
+      <c r="BO644" s="51"/>
+      <c r="BP644" s="51"/>
+      <c r="BQ644" s="51"/>
+      <c r="BR644" s="51"/>
+      <c r="BS644" s="51"/>
+      <c r="BT644" s="51"/>
+      <c r="BU644" s="51"/>
+      <c r="BV644" s="51"/>
+      <c r="BW644" s="51"/>
+      <c r="BX644" s="51"/>
+      <c r="BY644" s="51"/>
+      <c r="BZ644" s="51"/>
+      <c r="CA644" s="51"/>
+      <c r="CB644" s="51"/>
+      <c r="CC644" s="51"/>
+      <c r="CD644" s="51"/>
+    </row>
+    <row r="645" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I645" s="49"/>
+      <c r="J645" s="49"/>
+      <c r="K645" s="49"/>
+      <c r="L645" s="49"/>
+      <c r="M645" s="49"/>
+      <c r="N645" s="49"/>
+      <c r="O645" s="49"/>
+      <c r="P645" s="49"/>
+      <c r="Q645" s="49"/>
+      <c r="R645" s="49"/>
+      <c r="S645" s="49"/>
+      <c r="T645" s="49"/>
+      <c r="U645" s="49"/>
+      <c r="V645" s="49"/>
+      <c r="W645" s="49"/>
+      <c r="X645" s="49"/>
+      <c r="Y645" s="49"/>
+      <c r="Z645" s="49"/>
+      <c r="AA645" s="49"/>
+      <c r="AB645" s="49"/>
+      <c r="AC645" s="49"/>
+      <c r="AD645" s="49"/>
+      <c r="AE645" s="49"/>
+      <c r="AF645" s="49"/>
+      <c r="AG645" s="49"/>
+      <c r="AH645" s="49"/>
+      <c r="AI645" s="49"/>
+      <c r="AJ645" s="49"/>
+      <c r="AK645" s="51"/>
+      <c r="AL645" s="51"/>
+      <c r="AM645" s="51"/>
+      <c r="AN645" s="51"/>
+      <c r="AO645" s="51"/>
+      <c r="AP645" s="51"/>
+      <c r="AQ645" s="51"/>
+      <c r="AR645" s="51"/>
+      <c r="AS645" s="51"/>
+      <c r="AT645" s="51"/>
+      <c r="AU645" s="51"/>
+      <c r="AV645" s="51"/>
+      <c r="AW645" s="51"/>
+      <c r="AX645" s="51"/>
+      <c r="AY645" s="51"/>
+      <c r="AZ645" s="51"/>
+      <c r="BA645" s="51"/>
+      <c r="BB645" s="51"/>
+      <c r="BC645" s="51"/>
+      <c r="BD645" s="51"/>
+      <c r="BE645" s="51"/>
+      <c r="BF645" s="51"/>
+      <c r="BG645" s="51"/>
+      <c r="BH645" s="51"/>
+      <c r="BI645" s="51"/>
+      <c r="BJ645" s="51"/>
+      <c r="BK645" s="51"/>
+      <c r="BL645" s="51"/>
+      <c r="BM645" s="51"/>
+      <c r="BN645" s="51"/>
+      <c r="BO645" s="51"/>
+      <c r="BP645" s="51"/>
+      <c r="BQ645" s="51"/>
+      <c r="BR645" s="51"/>
+      <c r="BS645" s="51"/>
+      <c r="BT645" s="51"/>
+      <c r="BU645" s="51"/>
+      <c r="BV645" s="51"/>
+      <c r="BW645" s="51"/>
+      <c r="BX645" s="51"/>
+      <c r="BY645" s="51"/>
+      <c r="BZ645" s="51"/>
+      <c r="CA645" s="51"/>
+      <c r="CB645" s="51"/>
+      <c r="CC645" s="51"/>
+      <c r="CD645" s="51"/>
+    </row>
+    <row r="646" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I646" s="49"/>
+      <c r="J646" s="49"/>
+      <c r="K646" s="49"/>
+      <c r="L646" s="49"/>
+      <c r="M646" s="49"/>
+      <c r="N646" s="49"/>
+      <c r="O646" s="49"/>
+      <c r="P646" s="49"/>
+      <c r="Q646" s="49"/>
+      <c r="R646" s="49"/>
+      <c r="S646" s="49"/>
+      <c r="T646" s="49"/>
+      <c r="U646" s="49"/>
+      <c r="V646" s="49"/>
+      <c r="W646" s="49"/>
+      <c r="X646" s="49"/>
+      <c r="Y646" s="49"/>
+      <c r="Z646" s="49"/>
+      <c r="AA646" s="49"/>
+      <c r="AB646" s="49"/>
+      <c r="AC646" s="49"/>
+      <c r="AD646" s="49"/>
+      <c r="AE646" s="49"/>
+      <c r="AF646" s="49"/>
+      <c r="AG646" s="49"/>
+      <c r="AH646" s="49"/>
+      <c r="AI646" s="49"/>
+      <c r="AJ646" s="49"/>
+      <c r="AK646" s="51"/>
+      <c r="AL646" s="51"/>
+      <c r="AM646" s="51"/>
+      <c r="AN646" s="51"/>
+      <c r="AO646" s="51"/>
+      <c r="AP646" s="51"/>
+      <c r="AQ646" s="51"/>
+      <c r="AR646" s="51"/>
+      <c r="AS646" s="51"/>
+      <c r="AT646" s="51"/>
+      <c r="AU646" s="51"/>
+      <c r="AV646" s="51"/>
+      <c r="AW646" s="51"/>
+      <c r="AX646" s="51"/>
+      <c r="AY646" s="51"/>
+      <c r="AZ646" s="51"/>
+      <c r="BA646" s="51"/>
+      <c r="BB646" s="51"/>
+      <c r="BC646" s="51"/>
+      <c r="BD646" s="51"/>
+      <c r="BE646" s="51"/>
+      <c r="BF646" s="51"/>
+      <c r="BG646" s="51"/>
+      <c r="BH646" s="51"/>
+      <c r="BI646" s="51"/>
+      <c r="BJ646" s="51"/>
+      <c r="BK646" s="51"/>
+      <c r="BL646" s="51"/>
+      <c r="BM646" s="51"/>
+      <c r="BN646" s="51"/>
+      <c r="BO646" s="51"/>
+      <c r="BP646" s="51"/>
+      <c r="BQ646" s="51"/>
+      <c r="BR646" s="51"/>
+      <c r="BS646" s="51"/>
+      <c r="BT646" s="51"/>
+      <c r="BU646" s="51"/>
+      <c r="BV646" s="51"/>
+      <c r="BW646" s="51"/>
+      <c r="BX646" s="51"/>
+      <c r="BY646" s="51"/>
+      <c r="BZ646" s="51"/>
+      <c r="CA646" s="51"/>
+      <c r="CB646" s="51"/>
+      <c r="CC646" s="51"/>
+      <c r="CD646" s="51"/>
+    </row>
+    <row r="647" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I647" s="49"/>
+      <c r="J647" s="49"/>
+      <c r="K647" s="49"/>
+      <c r="L647" s="49"/>
+      <c r="M647" s="49"/>
+      <c r="N647" s="49"/>
+      <c r="O647" s="49"/>
+      <c r="P647" s="49"/>
+      <c r="Q647" s="49"/>
+      <c r="R647" s="49"/>
+      <c r="S647" s="49"/>
+      <c r="T647" s="49"/>
+      <c r="U647" s="49"/>
+      <c r="V647" s="49"/>
+      <c r="W647" s="49"/>
+      <c r="X647" s="49"/>
+      <c r="Y647" s="49"/>
+      <c r="Z647" s="49"/>
+      <c r="AA647" s="49"/>
+      <c r="AB647" s="49"/>
+      <c r="AC647" s="49"/>
+      <c r="AD647" s="49"/>
+      <c r="AE647" s="49"/>
+      <c r="AF647" s="49"/>
+      <c r="AG647" s="49"/>
+      <c r="AH647" s="49"/>
+      <c r="AI647" s="49"/>
+      <c r="AJ647" s="49"/>
+      <c r="AK647" s="51"/>
+      <c r="AL647" s="51"/>
+      <c r="AM647" s="51"/>
+      <c r="AN647" s="51"/>
+      <c r="AO647" s="51"/>
+      <c r="AP647" s="51"/>
+      <c r="AQ647" s="51"/>
+      <c r="AR647" s="51"/>
+      <c r="AS647" s="51"/>
+      <c r="AT647" s="51"/>
+      <c r="AU647" s="51"/>
+      <c r="AV647" s="51"/>
+      <c r="AW647" s="51"/>
+      <c r="AX647" s="51"/>
+      <c r="AY647" s="51"/>
+      <c r="AZ647" s="51"/>
+      <c r="BA647" s="51"/>
+      <c r="BB647" s="51"/>
+      <c r="BC647" s="51"/>
+      <c r="BD647" s="51"/>
+      <c r="BE647" s="51"/>
+      <c r="BF647" s="51"/>
+      <c r="BG647" s="51"/>
+      <c r="BH647" s="51"/>
+      <c r="BI647" s="51"/>
+      <c r="BJ647" s="51"/>
+      <c r="BK647" s="51"/>
+      <c r="BL647" s="51"/>
+      <c r="BM647" s="51"/>
+      <c r="BN647" s="51"/>
+      <c r="BO647" s="51"/>
+      <c r="BP647" s="51"/>
+      <c r="BQ647" s="51"/>
+      <c r="BR647" s="51"/>
+      <c r="BS647" s="51"/>
+      <c r="BT647" s="51"/>
+      <c r="BU647" s="51"/>
+      <c r="BV647" s="51"/>
+      <c r="BW647" s="51"/>
+      <c r="BX647" s="51"/>
+      <c r="BY647" s="51"/>
+      <c r="BZ647" s="51"/>
+      <c r="CA647" s="51"/>
+      <c r="CB647" s="51"/>
+      <c r="CC647" s="51"/>
+      <c r="CD647" s="51"/>
+    </row>
+    <row r="648" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I648" s="49"/>
+      <c r="J648" s="49"/>
+      <c r="K648" s="49"/>
+      <c r="L648" s="49"/>
+      <c r="M648" s="49"/>
+      <c r="N648" s="49"/>
+      <c r="O648" s="49"/>
+      <c r="P648" s="49"/>
+      <c r="Q648" s="49"/>
+      <c r="R648" s="49"/>
+      <c r="S648" s="49"/>
+      <c r="T648" s="49"/>
+      <c r="U648" s="49"/>
+      <c r="V648" s="49"/>
+      <c r="W648" s="49"/>
+      <c r="X648" s="49"/>
+      <c r="Y648" s="49"/>
+      <c r="Z648" s="49"/>
+      <c r="AA648" s="49"/>
+      <c r="AB648" s="49"/>
+      <c r="AC648" s="49"/>
+      <c r="AD648" s="49"/>
+      <c r="AE648" s="49"/>
+      <c r="AF648" s="49"/>
+      <c r="AG648" s="49"/>
+      <c r="AH648" s="49"/>
+      <c r="AI648" s="49"/>
+      <c r="AJ648" s="49"/>
+      <c r="AK648" s="51"/>
+      <c r="AL648" s="51"/>
+      <c r="AM648" s="51"/>
+      <c r="AN648" s="51"/>
+      <c r="AO648" s="51"/>
+      <c r="AP648" s="51"/>
+      <c r="AQ648" s="51"/>
+      <c r="AR648" s="51"/>
+      <c r="AS648" s="51"/>
+      <c r="AT648" s="51"/>
+      <c r="AU648" s="51"/>
+      <c r="AV648" s="51"/>
+      <c r="AW648" s="51"/>
+      <c r="AX648" s="51"/>
+      <c r="AY648" s="51"/>
+      <c r="AZ648" s="51"/>
+      <c r="BA648" s="51"/>
+      <c r="BB648" s="51"/>
+      <c r="BC648" s="51"/>
+      <c r="BD648" s="51"/>
+      <c r="BE648" s="51"/>
+      <c r="BF648" s="51"/>
+      <c r="BG648" s="51"/>
+      <c r="BH648" s="51"/>
+      <c r="BI648" s="51"/>
+      <c r="BJ648" s="51"/>
+      <c r="BK648" s="51"/>
+      <c r="BL648" s="51"/>
+      <c r="BM648" s="51"/>
+      <c r="BN648" s="51"/>
+      <c r="BO648" s="51"/>
+      <c r="BP648" s="51"/>
+      <c r="BQ648" s="51"/>
+      <c r="BR648" s="51"/>
+      <c r="BS648" s="51"/>
+      <c r="BT648" s="51"/>
+      <c r="BU648" s="51"/>
+      <c r="BV648" s="51"/>
+      <c r="BW648" s="51"/>
+      <c r="BX648" s="51"/>
+      <c r="BY648" s="51"/>
+      <c r="BZ648" s="51"/>
+      <c r="CA648" s="51"/>
+      <c r="CB648" s="51"/>
+      <c r="CC648" s="51"/>
+      <c r="CD648" s="51"/>
+    </row>
+    <row r="649" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I649" s="49"/>
+      <c r="J649" s="49"/>
+      <c r="K649" s="49"/>
+      <c r="L649" s="49"/>
+      <c r="M649" s="49"/>
+      <c r="N649" s="49"/>
+      <c r="O649" s="49"/>
+      <c r="P649" s="49"/>
+      <c r="Q649" s="49"/>
+      <c r="R649" s="49"/>
+      <c r="S649" s="49"/>
+      <c r="T649" s="49"/>
+      <c r="U649" s="49"/>
+      <c r="V649" s="49"/>
+      <c r="W649" s="49"/>
+      <c r="X649" s="49"/>
+      <c r="Y649" s="49"/>
+      <c r="Z649" s="49"/>
+      <c r="AA649" s="49"/>
+      <c r="AB649" s="49"/>
+      <c r="AC649" s="49"/>
+      <c r="AD649" s="49"/>
+      <c r="AE649" s="49"/>
+      <c r="AF649" s="49"/>
+      <c r="AG649" s="49"/>
+      <c r="AH649" s="49"/>
+      <c r="AI649" s="49"/>
+      <c r="AJ649" s="49"/>
+      <c r="AK649" s="51"/>
+      <c r="AL649" s="51"/>
+      <c r="AM649" s="51"/>
+      <c r="AN649" s="51"/>
+      <c r="AO649" s="51"/>
+      <c r="AP649" s="51"/>
+      <c r="AQ649" s="51"/>
+      <c r="AR649" s="51"/>
+      <c r="AS649" s="51"/>
+      <c r="AT649" s="51"/>
+      <c r="AU649" s="51"/>
+      <c r="AV649" s="51"/>
+      <c r="AW649" s="51"/>
+      <c r="AX649" s="51"/>
+      <c r="AY649" s="51"/>
+      <c r="AZ649" s="51"/>
+      <c r="BA649" s="51"/>
+      <c r="BB649" s="51"/>
+      <c r="BC649" s="51"/>
+      <c r="BD649" s="51"/>
+      <c r="BE649" s="51"/>
+      <c r="BF649" s="51"/>
+      <c r="BG649" s="51"/>
+      <c r="BH649" s="51"/>
+      <c r="BI649" s="51"/>
+      <c r="BJ649" s="51"/>
+      <c r="BK649" s="51"/>
+      <c r="BL649" s="51"/>
+      <c r="BM649" s="51"/>
+      <c r="BN649" s="51"/>
+      <c r="BO649" s="51"/>
+      <c r="BP649" s="51"/>
+      <c r="BQ649" s="51"/>
+      <c r="BR649" s="51"/>
+      <c r="BS649" s="51"/>
+      <c r="BT649" s="51"/>
+      <c r="BU649" s="51"/>
+      <c r="BV649" s="51"/>
+      <c r="BW649" s="51"/>
+      <c r="BX649" s="51"/>
+      <c r="BY649" s="51"/>
+      <c r="BZ649" s="51"/>
+      <c r="CA649" s="51"/>
+      <c r="CB649" s="51"/>
+      <c r="CC649" s="51"/>
+      <c r="CD649" s="51"/>
+    </row>
+    <row r="650" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I650" s="49"/>
+      <c r="J650" s="49"/>
+      <c r="K650" s="49"/>
+      <c r="L650" s="49"/>
+      <c r="M650" s="49"/>
+      <c r="N650" s="49"/>
+      <c r="O650" s="49"/>
+      <c r="P650" s="49"/>
+      <c r="Q650" s="49"/>
+      <c r="R650" s="49"/>
+      <c r="S650" s="49"/>
+      <c r="T650" s="49"/>
+      <c r="U650" s="49"/>
+      <c r="V650" s="49"/>
+      <c r="W650" s="49"/>
+      <c r="X650" s="49"/>
+      <c r="Y650" s="49"/>
+      <c r="Z650" s="49"/>
+      <c r="AA650" s="49"/>
+      <c r="AB650" s="49"/>
+      <c r="AC650" s="49"/>
+      <c r="AD650" s="49"/>
+      <c r="AE650" s="49"/>
+      <c r="AF650" s="49"/>
+      <c r="AG650" s="49"/>
+      <c r="AH650" s="49"/>
+      <c r="AI650" s="49"/>
+      <c r="AJ650" s="49"/>
+      <c r="AK650" s="51"/>
+      <c r="AL650" s="51"/>
+      <c r="AM650" s="51"/>
+      <c r="AN650" s="51"/>
+      <c r="AO650" s="51"/>
+      <c r="AP650" s="51"/>
+      <c r="AQ650" s="51"/>
+      <c r="AR650" s="51"/>
+      <c r="AS650" s="51"/>
+      <c r="AT650" s="51"/>
+      <c r="AU650" s="51"/>
+      <c r="AV650" s="51"/>
+      <c r="AW650" s="51"/>
+      <c r="AX650" s="51"/>
+      <c r="AY650" s="51"/>
+      <c r="AZ650" s="51"/>
+      <c r="BA650" s="51"/>
+      <c r="BB650" s="51"/>
+      <c r="BC650" s="51"/>
+      <c r="BD650" s="51"/>
+      <c r="BE650" s="51"/>
+      <c r="BF650" s="51"/>
+      <c r="BG650" s="51"/>
+      <c r="BH650" s="51"/>
+      <c r="BI650" s="51"/>
+      <c r="BJ650" s="51"/>
+      <c r="BK650" s="51"/>
+      <c r="BL650" s="51"/>
+      <c r="BM650" s="51"/>
+      <c r="BN650" s="51"/>
+      <c r="BO650" s="51"/>
+      <c r="BP650" s="51"/>
+      <c r="BQ650" s="51"/>
+      <c r="BR650" s="51"/>
+      <c r="BS650" s="51"/>
+      <c r="BT650" s="51"/>
+      <c r="BU650" s="51"/>
+      <c r="BV650" s="51"/>
+      <c r="BW650" s="51"/>
+      <c r="BX650" s="51"/>
+      <c r="BY650" s="51"/>
+      <c r="BZ650" s="51"/>
+      <c r="CA650" s="51"/>
+      <c r="CB650" s="51"/>
+      <c r="CC650" s="51"/>
+      <c r="CD650" s="51"/>
+    </row>
+    <row r="651" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I651" s="49"/>
+      <c r="J651" s="49"/>
+      <c r="K651" s="49"/>
+      <c r="L651" s="49"/>
+      <c r="M651" s="49"/>
+      <c r="N651" s="49"/>
+      <c r="O651" s="49"/>
+      <c r="P651" s="49"/>
+      <c r="Q651" s="49"/>
+      <c r="R651" s="49"/>
+      <c r="S651" s="49"/>
+      <c r="T651" s="49"/>
+      <c r="U651" s="49"/>
+      <c r="V651" s="49"/>
+      <c r="W651" s="49"/>
+      <c r="X651" s="49"/>
+      <c r="Y651" s="49"/>
+      <c r="Z651" s="49"/>
+      <c r="AA651" s="49"/>
+      <c r="AB651" s="49"/>
+      <c r="AC651" s="49"/>
+      <c r="AD651" s="49"/>
+      <c r="AE651" s="49"/>
+      <c r="AF651" s="49"/>
+      <c r="AG651" s="49"/>
+      <c r="AH651" s="49"/>
+      <c r="AI651" s="49"/>
+      <c r="AJ651" s="49"/>
+      <c r="AK651" s="51"/>
+      <c r="AL651" s="51"/>
+      <c r="AM651" s="51"/>
+      <c r="AN651" s="51"/>
+      <c r="AO651" s="51"/>
+      <c r="AP651" s="51"/>
+      <c r="AQ651" s="51"/>
+      <c r="AR651" s="51"/>
+      <c r="AS651" s="51"/>
+      <c r="AT651" s="51"/>
+      <c r="AU651" s="51"/>
+      <c r="AV651" s="51"/>
+      <c r="AW651" s="51"/>
+      <c r="AX651" s="51"/>
+      <c r="AY651" s="51"/>
+      <c r="AZ651" s="51"/>
+      <c r="BA651" s="51"/>
+      <c r="BB651" s="51"/>
+      <c r="BC651" s="51"/>
+      <c r="BD651" s="51"/>
+      <c r="BE651" s="51"/>
+      <c r="BF651" s="51"/>
+      <c r="BG651" s="51"/>
+      <c r="BH651" s="51"/>
+      <c r="BI651" s="51"/>
+      <c r="BJ651" s="51"/>
+      <c r="BK651" s="51"/>
+      <c r="BL651" s="51"/>
+      <c r="BM651" s="51"/>
+      <c r="BN651" s="51"/>
+      <c r="BO651" s="51"/>
+      <c r="BP651" s="51"/>
+      <c r="BQ651" s="51"/>
+      <c r="BR651" s="51"/>
+      <c r="BS651" s="51"/>
+      <c r="BT651" s="51"/>
+      <c r="BU651" s="51"/>
+      <c r="BV651" s="51"/>
+      <c r="BW651" s="51"/>
+      <c r="BX651" s="51"/>
+      <c r="BY651" s="51"/>
+      <c r="BZ651" s="51"/>
+      <c r="CA651" s="51"/>
+      <c r="CB651" s="51"/>
+      <c r="CC651" s="51"/>
+      <c r="CD651" s="51"/>
+    </row>
+    <row r="654" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="655" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I655" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="J655" s="46"/>
+      <c r="K655" s="46"/>
+      <c r="L655" s="46"/>
+      <c r="M655" s="46"/>
+      <c r="N655" s="46"/>
+      <c r="O655" s="46"/>
+      <c r="P655" s="46"/>
+      <c r="Q655" s="46"/>
+      <c r="R655" s="46"/>
+      <c r="S655" s="46"/>
+      <c r="T655" s="46"/>
+      <c r="U655" s="46"/>
+      <c r="V655" s="46"/>
+      <c r="W655" s="46"/>
+      <c r="X655" s="46"/>
+      <c r="Y655" s="46"/>
+      <c r="Z655" s="46"/>
+      <c r="AA655" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB655" s="46"/>
+      <c r="AC655" s="46"/>
+      <c r="AD655" s="46"/>
+      <c r="AE655" s="46"/>
+      <c r="AF655" s="46"/>
+      <c r="AG655" s="46"/>
+      <c r="AH655" s="46"/>
+      <c r="AI655" s="46"/>
+      <c r="AJ655" s="46"/>
+      <c r="AK655" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL655" s="46"/>
+      <c r="AM655" s="46"/>
+      <c r="AN655" s="46"/>
+      <c r="AO655" s="46"/>
+      <c r="AP655" s="46"/>
+      <c r="AQ655" s="46"/>
+      <c r="AR655" s="46"/>
+      <c r="AS655" s="46"/>
+      <c r="AT655" s="46"/>
+      <c r="AU655" s="46"/>
+      <c r="AV655" s="46"/>
+      <c r="AW655" s="46"/>
+      <c r="AX655" s="46"/>
+      <c r="AY655" s="46"/>
+      <c r="AZ655" s="46"/>
+      <c r="BA655" s="46"/>
+      <c r="BB655" s="46"/>
+      <c r="BC655" s="46"/>
+      <c r="BD655" s="46"/>
+      <c r="BE655" s="46"/>
+      <c r="BF655" s="46"/>
+      <c r="BG655" s="46"/>
+      <c r="BH655" s="46"/>
+      <c r="BI655" s="46"/>
+      <c r="BJ655" s="46"/>
+      <c r="BK655" s="46"/>
+      <c r="BL655" s="46"/>
+      <c r="BM655" s="46"/>
+      <c r="BN655" s="46"/>
+      <c r="BO655" s="46"/>
+      <c r="BP655" s="46"/>
+      <c r="BQ655" s="46"/>
+      <c r="BR655" s="46"/>
+      <c r="BS655" s="46"/>
+      <c r="BT655" s="46"/>
+      <c r="BU655" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="BV655" s="46"/>
+      <c r="BW655" s="46"/>
+      <c r="BX655" s="46"/>
+      <c r="BY655" s="46"/>
+      <c r="BZ655" s="46"/>
+      <c r="CA655" s="46"/>
+      <c r="CB655" s="46"/>
+      <c r="CC655" s="46"/>
+      <c r="CD655" s="46"/>
+    </row>
+    <row r="656" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I656" s="46"/>
+      <c r="J656" s="46"/>
+      <c r="K656" s="46"/>
+      <c r="L656" s="46"/>
+      <c r="M656" s="46"/>
+      <c r="N656" s="46"/>
+      <c r="O656" s="46"/>
+      <c r="P656" s="46"/>
+      <c r="Q656" s="46"/>
+      <c r="R656" s="46"/>
+      <c r="S656" s="46"/>
+      <c r="T656" s="46"/>
+      <c r="U656" s="46"/>
+      <c r="V656" s="46"/>
+      <c r="W656" s="46"/>
+      <c r="X656" s="46"/>
+      <c r="Y656" s="46"/>
+      <c r="Z656" s="46"/>
+      <c r="AA656" s="46"/>
+      <c r="AB656" s="46"/>
+      <c r="AC656" s="46"/>
+      <c r="AD656" s="46"/>
+      <c r="AE656" s="46"/>
+      <c r="AF656" s="46"/>
+      <c r="AG656" s="46"/>
+      <c r="AH656" s="46"/>
+      <c r="AI656" s="46"/>
+      <c r="AJ656" s="46"/>
+      <c r="AK656" s="46"/>
+      <c r="AL656" s="46"/>
+      <c r="AM656" s="46"/>
+      <c r="AN656" s="46"/>
+      <c r="AO656" s="46"/>
+      <c r="AP656" s="46"/>
+      <c r="AQ656" s="46"/>
+      <c r="AR656" s="46"/>
+      <c r="AS656" s="46"/>
+      <c r="AT656" s="46"/>
+      <c r="AU656" s="46"/>
+      <c r="AV656" s="46"/>
+      <c r="AW656" s="46"/>
+      <c r="AX656" s="46"/>
+      <c r="AY656" s="46"/>
+      <c r="AZ656" s="46"/>
+      <c r="BA656" s="46"/>
+      <c r="BB656" s="46"/>
+      <c r="BC656" s="46"/>
+      <c r="BD656" s="46"/>
+      <c r="BE656" s="46"/>
+      <c r="BF656" s="46"/>
+      <c r="BG656" s="46"/>
+      <c r="BH656" s="46"/>
+      <c r="BI656" s="46"/>
+      <c r="BJ656" s="46"/>
+      <c r="BK656" s="46"/>
+      <c r="BL656" s="46"/>
+      <c r="BM656" s="46"/>
+      <c r="BN656" s="46"/>
+      <c r="BO656" s="46"/>
+      <c r="BP656" s="46"/>
+      <c r="BQ656" s="46"/>
+      <c r="BR656" s="46"/>
+      <c r="BS656" s="46"/>
+      <c r="BT656" s="46"/>
+      <c r="BU656" s="46"/>
+      <c r="BV656" s="46"/>
+      <c r="BW656" s="46"/>
+      <c r="BX656" s="46"/>
+      <c r="BY656" s="46"/>
+      <c r="BZ656" s="46"/>
+      <c r="CA656" s="46"/>
+      <c r="CB656" s="46"/>
+      <c r="CC656" s="46"/>
+      <c r="CD656" s="46"/>
+    </row>
+    <row r="657" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I657" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J657" s="47"/>
+      <c r="K657" s="47"/>
+      <c r="L657" s="47"/>
+      <c r="M657" s="47"/>
+      <c r="N657" s="47"/>
+      <c r="O657" s="47"/>
+      <c r="P657" s="47"/>
+      <c r="Q657" s="47"/>
+      <c r="R657" s="47"/>
+      <c r="S657" s="47"/>
+      <c r="T657" s="47"/>
+      <c r="U657" s="47"/>
+      <c r="V657" s="47"/>
+      <c r="W657" s="47"/>
+      <c r="X657" s="47"/>
+      <c r="Y657" s="47"/>
+      <c r="Z657" s="47"/>
+      <c r="AA657" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB657" s="47"/>
+      <c r="AC657" s="47"/>
+      <c r="AD657" s="47"/>
+      <c r="AE657" s="47"/>
+      <c r="AF657" s="47"/>
+      <c r="AG657" s="47"/>
+      <c r="AH657" s="47"/>
+      <c r="AI657" s="47"/>
+      <c r="AJ657" s="47"/>
+      <c r="AK657" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL657" s="47"/>
+      <c r="AM657" s="47"/>
+      <c r="AN657" s="47"/>
+      <c r="AO657" s="47"/>
+      <c r="AP657" s="47"/>
+      <c r="AQ657" s="47"/>
+      <c r="AR657" s="47"/>
+      <c r="AS657" s="47"/>
+      <c r="AT657" s="47"/>
+      <c r="AU657" s="47"/>
+      <c r="AV657" s="47"/>
+      <c r="AW657" s="47"/>
+      <c r="AX657" s="47"/>
+      <c r="AY657" s="47"/>
+      <c r="AZ657" s="47"/>
+      <c r="BA657" s="47"/>
+      <c r="BB657" s="47"/>
+      <c r="BC657" s="47"/>
+      <c r="BD657" s="47"/>
+      <c r="BE657" s="47"/>
+      <c r="BF657" s="47"/>
+      <c r="BG657" s="47"/>
+      <c r="BH657" s="47"/>
+      <c r="BI657" s="47"/>
+      <c r="BJ657" s="47"/>
+      <c r="BK657" s="47"/>
+      <c r="BL657" s="47"/>
+      <c r="BM657" s="47"/>
+      <c r="BN657" s="47"/>
+      <c r="BO657" s="47"/>
+      <c r="BP657" s="47"/>
+      <c r="BQ657" s="47"/>
+      <c r="BR657" s="47"/>
+      <c r="BS657" s="47"/>
+      <c r="BT657" s="47"/>
+      <c r="BU657" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="BV657" s="47"/>
+      <c r="BW657" s="47"/>
+      <c r="BX657" s="47"/>
+      <c r="BY657" s="47"/>
+      <c r="BZ657" s="47"/>
+      <c r="CA657" s="47"/>
+      <c r="CB657" s="47"/>
+      <c r="CC657" s="47"/>
+      <c r="CD657" s="47"/>
+    </row>
+    <row r="658" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I658" s="47"/>
+      <c r="J658" s="47"/>
+      <c r="K658" s="47"/>
+      <c r="L658" s="47"/>
+      <c r="M658" s="47"/>
+      <c r="N658" s="47"/>
+      <c r="O658" s="47"/>
+      <c r="P658" s="47"/>
+      <c r="Q658" s="47"/>
+      <c r="R658" s="47"/>
+      <c r="S658" s="47"/>
+      <c r="T658" s="47"/>
+      <c r="U658" s="47"/>
+      <c r="V658" s="47"/>
+      <c r="W658" s="47"/>
+      <c r="X658" s="47"/>
+      <c r="Y658" s="47"/>
+      <c r="Z658" s="47"/>
+      <c r="AA658" s="47"/>
+      <c r="AB658" s="47"/>
+      <c r="AC658" s="47"/>
+      <c r="AD658" s="47"/>
+      <c r="AE658" s="47"/>
+      <c r="AF658" s="47"/>
+      <c r="AG658" s="47"/>
+      <c r="AH658" s="47"/>
+      <c r="AI658" s="47"/>
+      <c r="AJ658" s="47"/>
+      <c r="AK658" s="47"/>
+      <c r="AL658" s="47"/>
+      <c r="AM658" s="47"/>
+      <c r="AN658" s="47"/>
+      <c r="AO658" s="47"/>
+      <c r="AP658" s="47"/>
+      <c r="AQ658" s="47"/>
+      <c r="AR658" s="47"/>
+      <c r="AS658" s="47"/>
+      <c r="AT658" s="47"/>
+      <c r="AU658" s="47"/>
+      <c r="AV658" s="47"/>
+      <c r="AW658" s="47"/>
+      <c r="AX658" s="47"/>
+      <c r="AY658" s="47"/>
+      <c r="AZ658" s="47"/>
+      <c r="BA658" s="47"/>
+      <c r="BB658" s="47"/>
+      <c r="BC658" s="47"/>
+      <c r="BD658" s="47"/>
+      <c r="BE658" s="47"/>
+      <c r="BF658" s="47"/>
+      <c r="BG658" s="47"/>
+      <c r="BH658" s="47"/>
+      <c r="BI658" s="47"/>
+      <c r="BJ658" s="47"/>
+      <c r="BK658" s="47"/>
+      <c r="BL658" s="47"/>
+      <c r="BM658" s="47"/>
+      <c r="BN658" s="47"/>
+      <c r="BO658" s="47"/>
+      <c r="BP658" s="47"/>
+      <c r="BQ658" s="47"/>
+      <c r="BR658" s="47"/>
+      <c r="BS658" s="47"/>
+      <c r="BT658" s="47"/>
+      <c r="BU658" s="47"/>
+      <c r="BV658" s="47"/>
+      <c r="BW658" s="47"/>
+      <c r="BX658" s="47"/>
+      <c r="BY658" s="47"/>
+      <c r="BZ658" s="47"/>
+      <c r="CA658" s="47"/>
+      <c r="CB658" s="47"/>
+      <c r="CC658" s="47"/>
+      <c r="CD658" s="47"/>
+    </row>
+    <row r="659" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I659" s="47"/>
+      <c r="J659" s="47"/>
+      <c r="K659" s="47"/>
+      <c r="L659" s="47"/>
+      <c r="M659" s="47"/>
+      <c r="N659" s="47"/>
+      <c r="O659" s="47"/>
+      <c r="P659" s="47"/>
+      <c r="Q659" s="47"/>
+      <c r="R659" s="47"/>
+      <c r="S659" s="47"/>
+      <c r="T659" s="47"/>
+      <c r="U659" s="47"/>
+      <c r="V659" s="47"/>
+      <c r="W659" s="47"/>
+      <c r="X659" s="47"/>
+      <c r="Y659" s="47"/>
+      <c r="Z659" s="47"/>
+      <c r="AA659" s="47"/>
+      <c r="AB659" s="47"/>
+      <c r="AC659" s="47"/>
+      <c r="AD659" s="47"/>
+      <c r="AE659" s="47"/>
+      <c r="AF659" s="47"/>
+      <c r="AG659" s="47"/>
+      <c r="AH659" s="47"/>
+      <c r="AI659" s="47"/>
+      <c r="AJ659" s="47"/>
+      <c r="AK659" s="47"/>
+      <c r="AL659" s="47"/>
+      <c r="AM659" s="47"/>
+      <c r="AN659" s="47"/>
+      <c r="AO659" s="47"/>
+      <c r="AP659" s="47"/>
+      <c r="AQ659" s="47"/>
+      <c r="AR659" s="47"/>
+      <c r="AS659" s="47"/>
+      <c r="AT659" s="47"/>
+      <c r="AU659" s="47"/>
+      <c r="AV659" s="47"/>
+      <c r="AW659" s="47"/>
+      <c r="AX659" s="47"/>
+      <c r="AY659" s="47"/>
+      <c r="AZ659" s="47"/>
+      <c r="BA659" s="47"/>
+      <c r="BB659" s="47"/>
+      <c r="BC659" s="47"/>
+      <c r="BD659" s="47"/>
+      <c r="BE659" s="47"/>
+      <c r="BF659" s="47"/>
+      <c r="BG659" s="47"/>
+      <c r="BH659" s="47"/>
+      <c r="BI659" s="47"/>
+      <c r="BJ659" s="47"/>
+      <c r="BK659" s="47"/>
+      <c r="BL659" s="47"/>
+      <c r="BM659" s="47"/>
+      <c r="BN659" s="47"/>
+      <c r="BO659" s="47"/>
+      <c r="BP659" s="47"/>
+      <c r="BQ659" s="47"/>
+      <c r="BR659" s="47"/>
+      <c r="BS659" s="47"/>
+      <c r="BT659" s="47"/>
+      <c r="BU659" s="47"/>
+      <c r="BV659" s="47"/>
+      <c r="BW659" s="47"/>
+      <c r="BX659" s="47"/>
+      <c r="BY659" s="47"/>
+      <c r="BZ659" s="47"/>
+      <c r="CA659" s="47"/>
+      <c r="CB659" s="47"/>
+      <c r="CC659" s="47"/>
+      <c r="CD659" s="47"/>
+    </row>
+    <row r="660" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I660" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J660" s="46"/>
+      <c r="K660" s="46"/>
+      <c r="L660" s="46"/>
+      <c r="M660" s="46"/>
+      <c r="N660" s="46"/>
+      <c r="O660" s="46"/>
+      <c r="P660" s="46"/>
+      <c r="Q660" s="46"/>
+      <c r="R660" s="46"/>
+      <c r="S660" s="46"/>
+      <c r="T660" s="46"/>
+      <c r="U660" s="46"/>
+      <c r="V660" s="46"/>
+      <c r="W660" s="46"/>
+      <c r="X660" s="46"/>
+      <c r="Y660" s="46"/>
+      <c r="Z660" s="46"/>
+      <c r="AA660" s="46"/>
+      <c r="AB660" s="46"/>
+      <c r="AC660" s="46"/>
+      <c r="AD660" s="46"/>
+      <c r="AE660" s="46"/>
+      <c r="AF660" s="46"/>
+      <c r="AG660" s="46"/>
+      <c r="AH660" s="46"/>
+      <c r="AI660" s="46"/>
+      <c r="AJ660" s="46"/>
+      <c r="AK660" s="46"/>
+      <c r="AL660" s="46"/>
+      <c r="AM660" s="46"/>
+      <c r="AN660" s="46"/>
+      <c r="AO660" s="46"/>
+      <c r="AP660" s="46"/>
+      <c r="AQ660" s="46"/>
+      <c r="AR660" s="46"/>
+      <c r="AS660" s="46"/>
+      <c r="AT660" s="46"/>
+      <c r="AU660" s="46"/>
+      <c r="AV660" s="46"/>
+      <c r="AW660" s="46"/>
+      <c r="AX660" s="46"/>
+      <c r="AY660" s="46"/>
+      <c r="AZ660" s="46"/>
+      <c r="BA660" s="46"/>
+      <c r="BB660" s="46"/>
+      <c r="BC660" s="46"/>
+      <c r="BD660" s="46"/>
+      <c r="BE660" s="46"/>
+      <c r="BF660" s="46"/>
+      <c r="BG660" s="46"/>
+      <c r="BH660" s="46"/>
+      <c r="BI660" s="46"/>
+      <c r="BJ660" s="46"/>
+      <c r="BK660" s="46"/>
+      <c r="BL660" s="46"/>
+      <c r="BM660" s="46"/>
+      <c r="BN660" s="46"/>
+      <c r="BO660" s="46"/>
+      <c r="BP660" s="46"/>
+      <c r="BQ660" s="46"/>
+      <c r="BR660" s="46"/>
+      <c r="BS660" s="46"/>
+      <c r="BT660" s="46"/>
+      <c r="BU660" s="46"/>
+      <c r="BV660" s="46"/>
+      <c r="BW660" s="46"/>
+      <c r="BX660" s="46"/>
+      <c r="BY660" s="46"/>
+      <c r="BZ660" s="46"/>
+      <c r="CA660" s="46"/>
+      <c r="CB660" s="46"/>
+      <c r="CC660" s="46"/>
+      <c r="CD660" s="46"/>
+    </row>
+    <row r="661" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I661" s="46"/>
+      <c r="J661" s="46"/>
+      <c r="K661" s="46"/>
+      <c r="L661" s="46"/>
+      <c r="M661" s="46"/>
+      <c r="N661" s="46"/>
+      <c r="O661" s="46"/>
+      <c r="P661" s="46"/>
+      <c r="Q661" s="46"/>
+      <c r="R661" s="46"/>
+      <c r="S661" s="46"/>
+      <c r="T661" s="46"/>
+      <c r="U661" s="46"/>
+      <c r="V661" s="46"/>
+      <c r="W661" s="46"/>
+      <c r="X661" s="46"/>
+      <c r="Y661" s="46"/>
+      <c r="Z661" s="46"/>
+      <c r="AA661" s="46"/>
+      <c r="AB661" s="46"/>
+      <c r="AC661" s="46"/>
+      <c r="AD661" s="46"/>
+      <c r="AE661" s="46"/>
+      <c r="AF661" s="46"/>
+      <c r="AG661" s="46"/>
+      <c r="AH661" s="46"/>
+      <c r="AI661" s="46"/>
+      <c r="AJ661" s="46"/>
+      <c r="AK661" s="46"/>
+      <c r="AL661" s="46"/>
+      <c r="AM661" s="46"/>
+      <c r="AN661" s="46"/>
+      <c r="AO661" s="46"/>
+      <c r="AP661" s="46"/>
+      <c r="AQ661" s="46"/>
+      <c r="AR661" s="46"/>
+      <c r="AS661" s="46"/>
+      <c r="AT661" s="46"/>
+      <c r="AU661" s="46"/>
+      <c r="AV661" s="46"/>
+      <c r="AW661" s="46"/>
+      <c r="AX661" s="46"/>
+      <c r="AY661" s="46"/>
+      <c r="AZ661" s="46"/>
+      <c r="BA661" s="46"/>
+      <c r="BB661" s="46"/>
+      <c r="BC661" s="46"/>
+      <c r="BD661" s="46"/>
+      <c r="BE661" s="46"/>
+      <c r="BF661" s="46"/>
+      <c r="BG661" s="46"/>
+      <c r="BH661" s="46"/>
+      <c r="BI661" s="46"/>
+      <c r="BJ661" s="46"/>
+      <c r="BK661" s="46"/>
+      <c r="BL661" s="46"/>
+      <c r="BM661" s="46"/>
+      <c r="BN661" s="46"/>
+      <c r="BO661" s="46"/>
+      <c r="BP661" s="46"/>
+      <c r="BQ661" s="46"/>
+      <c r="BR661" s="46"/>
+      <c r="BS661" s="46"/>
+      <c r="BT661" s="46"/>
+      <c r="BU661" s="46"/>
+      <c r="BV661" s="46"/>
+      <c r="BW661" s="46"/>
+      <c r="BX661" s="46"/>
+      <c r="BY661" s="46"/>
+      <c r="BZ661" s="46"/>
+      <c r="CA661" s="46"/>
+      <c r="CB661" s="46"/>
+      <c r="CC661" s="46"/>
+      <c r="CD661" s="46"/>
+    </row>
+    <row r="662" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I662" s="49"/>
+      <c r="J662" s="49"/>
+      <c r="K662" s="49"/>
+      <c r="L662" s="49"/>
+      <c r="M662" s="49"/>
+      <c r="N662" s="49"/>
+      <c r="O662" s="49"/>
+      <c r="P662" s="49"/>
+      <c r="Q662" s="49"/>
+      <c r="R662" s="49"/>
+      <c r="S662" s="49"/>
+      <c r="T662" s="49"/>
+      <c r="U662" s="49"/>
+      <c r="V662" s="49"/>
+      <c r="W662" s="49"/>
+      <c r="X662" s="49"/>
+      <c r="Y662" s="49"/>
+      <c r="Z662" s="49"/>
+      <c r="AA662" s="49"/>
+      <c r="AB662" s="49"/>
+      <c r="AC662" s="49"/>
+      <c r="AD662" s="49"/>
+      <c r="AE662" s="49"/>
+      <c r="AF662" s="49"/>
+      <c r="AG662" s="49"/>
+      <c r="AH662" s="49"/>
+      <c r="AI662" s="49"/>
+      <c r="AJ662" s="49"/>
+      <c r="AK662" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL662" s="51"/>
+      <c r="AM662" s="51"/>
+      <c r="AN662" s="51"/>
+      <c r="AO662" s="51"/>
+      <c r="AP662" s="51"/>
+      <c r="AQ662" s="51"/>
+      <c r="AR662" s="51"/>
+      <c r="AS662" s="51"/>
+      <c r="AT662" s="51"/>
+      <c r="AU662" s="51"/>
+      <c r="AV662" s="51"/>
+      <c r="AW662" s="51"/>
+      <c r="AX662" s="51"/>
+      <c r="AY662" s="51"/>
+      <c r="AZ662" s="51"/>
+      <c r="BA662" s="51"/>
+      <c r="BB662" s="51"/>
+      <c r="BC662" s="51"/>
+      <c r="BD662" s="51"/>
+      <c r="BE662" s="51"/>
+      <c r="BF662" s="51"/>
+      <c r="BG662" s="51"/>
+      <c r="BH662" s="51"/>
+      <c r="BI662" s="51"/>
+      <c r="BJ662" s="51"/>
+      <c r="BK662" s="51"/>
+      <c r="BL662" s="51"/>
+      <c r="BM662" s="51"/>
+      <c r="BN662" s="51"/>
+      <c r="BO662" s="51"/>
+      <c r="BP662" s="51"/>
+      <c r="BQ662" s="51"/>
+      <c r="BR662" s="51"/>
+      <c r="BS662" s="51"/>
+      <c r="BT662" s="51"/>
+      <c r="BU662" s="51"/>
+      <c r="BV662" s="51"/>
+      <c r="BW662" s="51"/>
+      <c r="BX662" s="51"/>
+      <c r="BY662" s="51"/>
+      <c r="BZ662" s="51"/>
+      <c r="CA662" s="51"/>
+      <c r="CB662" s="51"/>
+      <c r="CC662" s="51"/>
+      <c r="CD662" s="51"/>
+    </row>
+    <row r="663" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I663" s="49"/>
+      <c r="J663" s="49"/>
+      <c r="K663" s="49"/>
+      <c r="L663" s="49"/>
+      <c r="M663" s="49"/>
+      <c r="N663" s="49"/>
+      <c r="O663" s="49"/>
+      <c r="P663" s="49"/>
+      <c r="Q663" s="49"/>
+      <c r="R663" s="49"/>
+      <c r="S663" s="49"/>
+      <c r="T663" s="49"/>
+      <c r="U663" s="49"/>
+      <c r="V663" s="49"/>
+      <c r="W663" s="49"/>
+      <c r="X663" s="49"/>
+      <c r="Y663" s="49"/>
+      <c r="Z663" s="49"/>
+      <c r="AA663" s="49"/>
+      <c r="AB663" s="49"/>
+      <c r="AC663" s="49"/>
+      <c r="AD663" s="49"/>
+      <c r="AE663" s="49"/>
+      <c r="AF663" s="49"/>
+      <c r="AG663" s="49"/>
+      <c r="AH663" s="49"/>
+      <c r="AI663" s="49"/>
+      <c r="AJ663" s="49"/>
+      <c r="AK663" s="51"/>
+      <c r="AL663" s="51"/>
+      <c r="AM663" s="51"/>
+      <c r="AN663" s="51"/>
+      <c r="AO663" s="51"/>
+      <c r="AP663" s="51"/>
+      <c r="AQ663" s="51"/>
+      <c r="AR663" s="51"/>
+      <c r="AS663" s="51"/>
+      <c r="AT663" s="51"/>
+      <c r="AU663" s="51"/>
+      <c r="AV663" s="51"/>
+      <c r="AW663" s="51"/>
+      <c r="AX663" s="51"/>
+      <c r="AY663" s="51"/>
+      <c r="AZ663" s="51"/>
+      <c r="BA663" s="51"/>
+      <c r="BB663" s="51"/>
+      <c r="BC663" s="51"/>
+      <c r="BD663" s="51"/>
+      <c r="BE663" s="51"/>
+      <c r="BF663" s="51"/>
+      <c r="BG663" s="51"/>
+      <c r="BH663" s="51"/>
+      <c r="BI663" s="51"/>
+      <c r="BJ663" s="51"/>
+      <c r="BK663" s="51"/>
+      <c r="BL663" s="51"/>
+      <c r="BM663" s="51"/>
+      <c r="BN663" s="51"/>
+      <c r="BO663" s="51"/>
+      <c r="BP663" s="51"/>
+      <c r="BQ663" s="51"/>
+      <c r="BR663" s="51"/>
+      <c r="BS663" s="51"/>
+      <c r="BT663" s="51"/>
+      <c r="BU663" s="51"/>
+      <c r="BV663" s="51"/>
+      <c r="BW663" s="51"/>
+      <c r="BX663" s="51"/>
+      <c r="BY663" s="51"/>
+      <c r="BZ663" s="51"/>
+      <c r="CA663" s="51"/>
+      <c r="CB663" s="51"/>
+      <c r="CC663" s="51"/>
+      <c r="CD663" s="51"/>
+    </row>
+    <row r="664" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I664" s="49"/>
+      <c r="J664" s="49"/>
+      <c r="K664" s="49"/>
+      <c r="L664" s="49"/>
+      <c r="M664" s="49"/>
+      <c r="N664" s="49"/>
+      <c r="O664" s="49"/>
+      <c r="P664" s="49"/>
+      <c r="Q664" s="49"/>
+      <c r="R664" s="49"/>
+      <c r="S664" s="49"/>
+      <c r="T664" s="49"/>
+      <c r="U664" s="49"/>
+      <c r="V664" s="49"/>
+      <c r="W664" s="49"/>
+      <c r="X664" s="49"/>
+      <c r="Y664" s="49"/>
+      <c r="Z664" s="49"/>
+      <c r="AA664" s="49"/>
+      <c r="AB664" s="49"/>
+      <c r="AC664" s="49"/>
+      <c r="AD664" s="49"/>
+      <c r="AE664" s="49"/>
+      <c r="AF664" s="49"/>
+      <c r="AG664" s="49"/>
+      <c r="AH664" s="49"/>
+      <c r="AI664" s="49"/>
+      <c r="AJ664" s="49"/>
+      <c r="AK664" s="51"/>
+      <c r="AL664" s="51"/>
+      <c r="AM664" s="51"/>
+      <c r="AN664" s="51"/>
+      <c r="AO664" s="51"/>
+      <c r="AP664" s="51"/>
+      <c r="AQ664" s="51"/>
+      <c r="AR664" s="51"/>
+      <c r="AS664" s="51"/>
+      <c r="AT664" s="51"/>
+      <c r="AU664" s="51"/>
+      <c r="AV664" s="51"/>
+      <c r="AW664" s="51"/>
+      <c r="AX664" s="51"/>
+      <c r="AY664" s="51"/>
+      <c r="AZ664" s="51"/>
+      <c r="BA664" s="51"/>
+      <c r="BB664" s="51"/>
+      <c r="BC664" s="51"/>
+      <c r="BD664" s="51"/>
+      <c r="BE664" s="51"/>
+      <c r="BF664" s="51"/>
+      <c r="BG664" s="51"/>
+      <c r="BH664" s="51"/>
+      <c r="BI664" s="51"/>
+      <c r="BJ664" s="51"/>
+      <c r="BK664" s="51"/>
+      <c r="BL664" s="51"/>
+      <c r="BM664" s="51"/>
+      <c r="BN664" s="51"/>
+      <c r="BO664" s="51"/>
+      <c r="BP664" s="51"/>
+      <c r="BQ664" s="51"/>
+      <c r="BR664" s="51"/>
+      <c r="BS664" s="51"/>
+      <c r="BT664" s="51"/>
+      <c r="BU664" s="51"/>
+      <c r="BV664" s="51"/>
+      <c r="BW664" s="51"/>
+      <c r="BX664" s="51"/>
+      <c r="BY664" s="51"/>
+      <c r="BZ664" s="51"/>
+      <c r="CA664" s="51"/>
+      <c r="CB664" s="51"/>
+      <c r="CC664" s="51"/>
+      <c r="CD664" s="51"/>
+    </row>
+    <row r="665" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I665" s="49"/>
+      <c r="J665" s="49"/>
+      <c r="K665" s="49"/>
+      <c r="L665" s="49"/>
+      <c r="M665" s="49"/>
+      <c r="N665" s="49"/>
+      <c r="O665" s="49"/>
+      <c r="P665" s="49"/>
+      <c r="Q665" s="49"/>
+      <c r="R665" s="49"/>
+      <c r="S665" s="49"/>
+      <c r="T665" s="49"/>
+      <c r="U665" s="49"/>
+      <c r="V665" s="49"/>
+      <c r="W665" s="49"/>
+      <c r="X665" s="49"/>
+      <c r="Y665" s="49"/>
+      <c r="Z665" s="49"/>
+      <c r="AA665" s="49"/>
+      <c r="AB665" s="49"/>
+      <c r="AC665" s="49"/>
+      <c r="AD665" s="49"/>
+      <c r="AE665" s="49"/>
+      <c r="AF665" s="49"/>
+      <c r="AG665" s="49"/>
+      <c r="AH665" s="49"/>
+      <c r="AI665" s="49"/>
+      <c r="AJ665" s="49"/>
+      <c r="AK665" s="51"/>
+      <c r="AL665" s="51"/>
+      <c r="AM665" s="51"/>
+      <c r="AN665" s="51"/>
+      <c r="AO665" s="51"/>
+      <c r="AP665" s="51"/>
+      <c r="AQ665" s="51"/>
+      <c r="AR665" s="51"/>
+      <c r="AS665" s="51"/>
+      <c r="AT665" s="51"/>
+      <c r="AU665" s="51"/>
+      <c r="AV665" s="51"/>
+      <c r="AW665" s="51"/>
+      <c r="AX665" s="51"/>
+      <c r="AY665" s="51"/>
+      <c r="AZ665" s="51"/>
+      <c r="BA665" s="51"/>
+      <c r="BB665" s="51"/>
+      <c r="BC665" s="51"/>
+      <c r="BD665" s="51"/>
+      <c r="BE665" s="51"/>
+      <c r="BF665" s="51"/>
+      <c r="BG665" s="51"/>
+      <c r="BH665" s="51"/>
+      <c r="BI665" s="51"/>
+      <c r="BJ665" s="51"/>
+      <c r="BK665" s="51"/>
+      <c r="BL665" s="51"/>
+      <c r="BM665" s="51"/>
+      <c r="BN665" s="51"/>
+      <c r="BO665" s="51"/>
+      <c r="BP665" s="51"/>
+      <c r="BQ665" s="51"/>
+      <c r="BR665" s="51"/>
+      <c r="BS665" s="51"/>
+      <c r="BT665" s="51"/>
+      <c r="BU665" s="51"/>
+      <c r="BV665" s="51"/>
+      <c r="BW665" s="51"/>
+      <c r="BX665" s="51"/>
+      <c r="BY665" s="51"/>
+      <c r="BZ665" s="51"/>
+      <c r="CA665" s="51"/>
+      <c r="CB665" s="51"/>
+      <c r="CC665" s="51"/>
+      <c r="CD665" s="51"/>
+    </row>
+    <row r="666" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I666" s="49"/>
+      <c r="J666" s="49"/>
+      <c r="K666" s="49"/>
+      <c r="L666" s="49"/>
+      <c r="M666" s="49"/>
+      <c r="N666" s="49"/>
+      <c r="O666" s="49"/>
+      <c r="P666" s="49"/>
+      <c r="Q666" s="49"/>
+      <c r="R666" s="49"/>
+      <c r="S666" s="49"/>
+      <c r="T666" s="49"/>
+      <c r="U666" s="49"/>
+      <c r="V666" s="49"/>
+      <c r="W666" s="49"/>
+      <c r="X666" s="49"/>
+      <c r="Y666" s="49"/>
+      <c r="Z666" s="49"/>
+      <c r="AA666" s="49"/>
+      <c r="AB666" s="49"/>
+      <c r="AC666" s="49"/>
+      <c r="AD666" s="49"/>
+      <c r="AE666" s="49"/>
+      <c r="AF666" s="49"/>
+      <c r="AG666" s="49"/>
+      <c r="AH666" s="49"/>
+      <c r="AI666" s="49"/>
+      <c r="AJ666" s="49"/>
+      <c r="AK666" s="51"/>
+      <c r="AL666" s="51"/>
+      <c r="AM666" s="51"/>
+      <c r="AN666" s="51"/>
+      <c r="AO666" s="51"/>
+      <c r="AP666" s="51"/>
+      <c r="AQ666" s="51"/>
+      <c r="AR666" s="51"/>
+      <c r="AS666" s="51"/>
+      <c r="AT666" s="51"/>
+      <c r="AU666" s="51"/>
+      <c r="AV666" s="51"/>
+      <c r="AW666" s="51"/>
+      <c r="AX666" s="51"/>
+      <c r="AY666" s="51"/>
+      <c r="AZ666" s="51"/>
+      <c r="BA666" s="51"/>
+      <c r="BB666" s="51"/>
+      <c r="BC666" s="51"/>
+      <c r="BD666" s="51"/>
+      <c r="BE666" s="51"/>
+      <c r="BF666" s="51"/>
+      <c r="BG666" s="51"/>
+      <c r="BH666" s="51"/>
+      <c r="BI666" s="51"/>
+      <c r="BJ666" s="51"/>
+      <c r="BK666" s="51"/>
+      <c r="BL666" s="51"/>
+      <c r="BM666" s="51"/>
+      <c r="BN666" s="51"/>
+      <c r="BO666" s="51"/>
+      <c r="BP666" s="51"/>
+      <c r="BQ666" s="51"/>
+      <c r="BR666" s="51"/>
+      <c r="BS666" s="51"/>
+      <c r="BT666" s="51"/>
+      <c r="BU666" s="51"/>
+      <c r="BV666" s="51"/>
+      <c r="BW666" s="51"/>
+      <c r="BX666" s="51"/>
+      <c r="BY666" s="51"/>
+      <c r="BZ666" s="51"/>
+      <c r="CA666" s="51"/>
+      <c r="CB666" s="51"/>
+      <c r="CC666" s="51"/>
+      <c r="CD666" s="51"/>
+    </row>
+    <row r="667" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I667" s="49"/>
+      <c r="J667" s="49"/>
+      <c r="K667" s="49"/>
+      <c r="L667" s="49"/>
+      <c r="M667" s="49"/>
+      <c r="N667" s="49"/>
+      <c r="O667" s="49"/>
+      <c r="P667" s="49"/>
+      <c r="Q667" s="49"/>
+      <c r="R667" s="49"/>
+      <c r="S667" s="49"/>
+      <c r="T667" s="49"/>
+      <c r="U667" s="49"/>
+      <c r="V667" s="49"/>
+      <c r="W667" s="49"/>
+      <c r="X667" s="49"/>
+      <c r="Y667" s="49"/>
+      <c r="Z667" s="49"/>
+      <c r="AA667" s="49"/>
+      <c r="AB667" s="49"/>
+      <c r="AC667" s="49"/>
+      <c r="AD667" s="49"/>
+      <c r="AE667" s="49"/>
+      <c r="AF667" s="49"/>
+      <c r="AG667" s="49"/>
+      <c r="AH667" s="49"/>
+      <c r="AI667" s="49"/>
+      <c r="AJ667" s="49"/>
+      <c r="AK667" s="51"/>
+      <c r="AL667" s="51"/>
+      <c r="AM667" s="51"/>
+      <c r="AN667" s="51"/>
+      <c r="AO667" s="51"/>
+      <c r="AP667" s="51"/>
+      <c r="AQ667" s="51"/>
+      <c r="AR667" s="51"/>
+      <c r="AS667" s="51"/>
+      <c r="AT667" s="51"/>
+      <c r="AU667" s="51"/>
+      <c r="AV667" s="51"/>
+      <c r="AW667" s="51"/>
+      <c r="AX667" s="51"/>
+      <c r="AY667" s="51"/>
+      <c r="AZ667" s="51"/>
+      <c r="BA667" s="51"/>
+      <c r="BB667" s="51"/>
+      <c r="BC667" s="51"/>
+      <c r="BD667" s="51"/>
+      <c r="BE667" s="51"/>
+      <c r="BF667" s="51"/>
+      <c r="BG667" s="51"/>
+      <c r="BH667" s="51"/>
+      <c r="BI667" s="51"/>
+      <c r="BJ667" s="51"/>
+      <c r="BK667" s="51"/>
+      <c r="BL667" s="51"/>
+      <c r="BM667" s="51"/>
+      <c r="BN667" s="51"/>
+      <c r="BO667" s="51"/>
+      <c r="BP667" s="51"/>
+      <c r="BQ667" s="51"/>
+      <c r="BR667" s="51"/>
+      <c r="BS667" s="51"/>
+      <c r="BT667" s="51"/>
+      <c r="BU667" s="51"/>
+      <c r="BV667" s="51"/>
+      <c r="BW667" s="51"/>
+      <c r="BX667" s="51"/>
+      <c r="BY667" s="51"/>
+      <c r="BZ667" s="51"/>
+      <c r="CA667" s="51"/>
+      <c r="CB667" s="51"/>
+      <c r="CC667" s="51"/>
+      <c r="CD667" s="51"/>
+    </row>
+    <row r="668" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I668" s="49"/>
+      <c r="J668" s="49"/>
+      <c r="K668" s="49"/>
+      <c r="L668" s="49"/>
+      <c r="M668" s="49"/>
+      <c r="N668" s="49"/>
+      <c r="O668" s="49"/>
+      <c r="P668" s="49"/>
+      <c r="Q668" s="49"/>
+      <c r="R668" s="49"/>
+      <c r="S668" s="49"/>
+      <c r="T668" s="49"/>
+      <c r="U668" s="49"/>
+      <c r="V668" s="49"/>
+      <c r="W668" s="49"/>
+      <c r="X668" s="49"/>
+      <c r="Y668" s="49"/>
+      <c r="Z668" s="49"/>
+      <c r="AA668" s="49"/>
+      <c r="AB668" s="49"/>
+      <c r="AC668" s="49"/>
+      <c r="AD668" s="49"/>
+      <c r="AE668" s="49"/>
+      <c r="AF668" s="49"/>
+      <c r="AG668" s="49"/>
+      <c r="AH668" s="49"/>
+      <c r="AI668" s="49"/>
+      <c r="AJ668" s="49"/>
+      <c r="AK668" s="51"/>
+      <c r="AL668" s="51"/>
+      <c r="AM668" s="51"/>
+      <c r="AN668" s="51"/>
+      <c r="AO668" s="51"/>
+      <c r="AP668" s="51"/>
+      <c r="AQ668" s="51"/>
+      <c r="AR668" s="51"/>
+      <c r="AS668" s="51"/>
+      <c r="AT668" s="51"/>
+      <c r="AU668" s="51"/>
+      <c r="AV668" s="51"/>
+      <c r="AW668" s="51"/>
+      <c r="AX668" s="51"/>
+      <c r="AY668" s="51"/>
+      <c r="AZ668" s="51"/>
+      <c r="BA668" s="51"/>
+      <c r="BB668" s="51"/>
+      <c r="BC668" s="51"/>
+      <c r="BD668" s="51"/>
+      <c r="BE668" s="51"/>
+      <c r="BF668" s="51"/>
+      <c r="BG668" s="51"/>
+      <c r="BH668" s="51"/>
+      <c r="BI668" s="51"/>
+      <c r="BJ668" s="51"/>
+      <c r="BK668" s="51"/>
+      <c r="BL668" s="51"/>
+      <c r="BM668" s="51"/>
+      <c r="BN668" s="51"/>
+      <c r="BO668" s="51"/>
+      <c r="BP668" s="51"/>
+      <c r="BQ668" s="51"/>
+      <c r="BR668" s="51"/>
+      <c r="BS668" s="51"/>
+      <c r="BT668" s="51"/>
+      <c r="BU668" s="51"/>
+      <c r="BV668" s="51"/>
+      <c r="BW668" s="51"/>
+      <c r="BX668" s="51"/>
+      <c r="BY668" s="51"/>
+      <c r="BZ668" s="51"/>
+      <c r="CA668" s="51"/>
+      <c r="CB668" s="51"/>
+      <c r="CC668" s="51"/>
+      <c r="CD668" s="51"/>
+    </row>
+    <row r="669" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I669" s="49"/>
+      <c r="J669" s="49"/>
+      <c r="K669" s="49"/>
+      <c r="L669" s="49"/>
+      <c r="M669" s="49"/>
+      <c r="N669" s="49"/>
+      <c r="O669" s="49"/>
+      <c r="P669" s="49"/>
+      <c r="Q669" s="49"/>
+      <c r="R669" s="49"/>
+      <c r="S669" s="49"/>
+      <c r="T669" s="49"/>
+      <c r="U669" s="49"/>
+      <c r="V669" s="49"/>
+      <c r="W669" s="49"/>
+      <c r="X669" s="49"/>
+      <c r="Y669" s="49"/>
+      <c r="Z669" s="49"/>
+      <c r="AA669" s="49"/>
+      <c r="AB669" s="49"/>
+      <c r="AC669" s="49"/>
+      <c r="AD669" s="49"/>
+      <c r="AE669" s="49"/>
+      <c r="AF669" s="49"/>
+      <c r="AG669" s="49"/>
+      <c r="AH669" s="49"/>
+      <c r="AI669" s="49"/>
+      <c r="AJ669" s="49"/>
+      <c r="AK669" s="51"/>
+      <c r="AL669" s="51"/>
+      <c r="AM669" s="51"/>
+      <c r="AN669" s="51"/>
+      <c r="AO669" s="51"/>
+      <c r="AP669" s="51"/>
+      <c r="AQ669" s="51"/>
+      <c r="AR669" s="51"/>
+      <c r="AS669" s="51"/>
+      <c r="AT669" s="51"/>
+      <c r="AU669" s="51"/>
+      <c r="AV669" s="51"/>
+      <c r="AW669" s="51"/>
+      <c r="AX669" s="51"/>
+      <c r="AY669" s="51"/>
+      <c r="AZ669" s="51"/>
+      <c r="BA669" s="51"/>
+      <c r="BB669" s="51"/>
+      <c r="BC669" s="51"/>
+      <c r="BD669" s="51"/>
+      <c r="BE669" s="51"/>
+      <c r="BF669" s="51"/>
+      <c r="BG669" s="51"/>
+      <c r="BH669" s="51"/>
+      <c r="BI669" s="51"/>
+      <c r="BJ669" s="51"/>
+      <c r="BK669" s="51"/>
+      <c r="BL669" s="51"/>
+      <c r="BM669" s="51"/>
+      <c r="BN669" s="51"/>
+      <c r="BO669" s="51"/>
+      <c r="BP669" s="51"/>
+      <c r="BQ669" s="51"/>
+      <c r="BR669" s="51"/>
+      <c r="BS669" s="51"/>
+      <c r="BT669" s="51"/>
+      <c r="BU669" s="51"/>
+      <c r="BV669" s="51"/>
+      <c r="BW669" s="51"/>
+      <c r="BX669" s="51"/>
+      <c r="BY669" s="51"/>
+      <c r="BZ669" s="51"/>
+      <c r="CA669" s="51"/>
+      <c r="CB669" s="51"/>
+      <c r="CC669" s="51"/>
+      <c r="CD669" s="51"/>
+    </row>
+    <row r="670" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I670" s="49"/>
+      <c r="J670" s="49"/>
+      <c r="K670" s="49"/>
+      <c r="L670" s="49"/>
+      <c r="M670" s="49"/>
+      <c r="N670" s="49"/>
+      <c r="O670" s="49"/>
+      <c r="P670" s="49"/>
+      <c r="Q670" s="49"/>
+      <c r="R670" s="49"/>
+      <c r="S670" s="49"/>
+      <c r="T670" s="49"/>
+      <c r="U670" s="49"/>
+      <c r="V670" s="49"/>
+      <c r="W670" s="49"/>
+      <c r="X670" s="49"/>
+      <c r="Y670" s="49"/>
+      <c r="Z670" s="49"/>
+      <c r="AA670" s="49"/>
+      <c r="AB670" s="49"/>
+      <c r="AC670" s="49"/>
+      <c r="AD670" s="49"/>
+      <c r="AE670" s="49"/>
+      <c r="AF670" s="49"/>
+      <c r="AG670" s="49"/>
+      <c r="AH670" s="49"/>
+      <c r="AI670" s="49"/>
+      <c r="AJ670" s="49"/>
+      <c r="AK670" s="51"/>
+      <c r="AL670" s="51"/>
+      <c r="AM670" s="51"/>
+      <c r="AN670" s="51"/>
+      <c r="AO670" s="51"/>
+      <c r="AP670" s="51"/>
+      <c r="AQ670" s="51"/>
+      <c r="AR670" s="51"/>
+      <c r="AS670" s="51"/>
+      <c r="AT670" s="51"/>
+      <c r="AU670" s="51"/>
+      <c r="AV670" s="51"/>
+      <c r="AW670" s="51"/>
+      <c r="AX670" s="51"/>
+      <c r="AY670" s="51"/>
+      <c r="AZ670" s="51"/>
+      <c r="BA670" s="51"/>
+      <c r="BB670" s="51"/>
+      <c r="BC670" s="51"/>
+      <c r="BD670" s="51"/>
+      <c r="BE670" s="51"/>
+      <c r="BF670" s="51"/>
+      <c r="BG670" s="51"/>
+      <c r="BH670" s="51"/>
+      <c r="BI670" s="51"/>
+      <c r="BJ670" s="51"/>
+      <c r="BK670" s="51"/>
+      <c r="BL670" s="51"/>
+      <c r="BM670" s="51"/>
+      <c r="BN670" s="51"/>
+      <c r="BO670" s="51"/>
+      <c r="BP670" s="51"/>
+      <c r="BQ670" s="51"/>
+      <c r="BR670" s="51"/>
+      <c r="BS670" s="51"/>
+      <c r="BT670" s="51"/>
+      <c r="BU670" s="51"/>
+      <c r="BV670" s="51"/>
+      <c r="BW670" s="51"/>
+      <c r="BX670" s="51"/>
+      <c r="BY670" s="51"/>
+      <c r="BZ670" s="51"/>
+      <c r="CA670" s="51"/>
+      <c r="CB670" s="51"/>
+      <c r="CC670" s="51"/>
+      <c r="CD670" s="51"/>
+    </row>
+    <row r="671" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I671" s="49"/>
+      <c r="J671" s="49"/>
+      <c r="K671" s="49"/>
+      <c r="L671" s="49"/>
+      <c r="M671" s="49"/>
+      <c r="N671" s="49"/>
+      <c r="O671" s="49"/>
+      <c r="P671" s="49"/>
+      <c r="Q671" s="49"/>
+      <c r="R671" s="49"/>
+      <c r="S671" s="49"/>
+      <c r="T671" s="49"/>
+      <c r="U671" s="49"/>
+      <c r="V671" s="49"/>
+      <c r="W671" s="49"/>
+      <c r="X671" s="49"/>
+      <c r="Y671" s="49"/>
+      <c r="Z671" s="49"/>
+      <c r="AA671" s="49"/>
+      <c r="AB671" s="49"/>
+      <c r="AC671" s="49"/>
+      <c r="AD671" s="49"/>
+      <c r="AE671" s="49"/>
+      <c r="AF671" s="49"/>
+      <c r="AG671" s="49"/>
+      <c r="AH671" s="49"/>
+      <c r="AI671" s="49"/>
+      <c r="AJ671" s="49"/>
+      <c r="AK671" s="51"/>
+      <c r="AL671" s="51"/>
+      <c r="AM671" s="51"/>
+      <c r="AN671" s="51"/>
+      <c r="AO671" s="51"/>
+      <c r="AP671" s="51"/>
+      <c r="AQ671" s="51"/>
+      <c r="AR671" s="51"/>
+      <c r="AS671" s="51"/>
+      <c r="AT671" s="51"/>
+      <c r="AU671" s="51"/>
+      <c r="AV671" s="51"/>
+      <c r="AW671" s="51"/>
+      <c r="AX671" s="51"/>
+      <c r="AY671" s="51"/>
+      <c r="AZ671" s="51"/>
+      <c r="BA671" s="51"/>
+      <c r="BB671" s="51"/>
+      <c r="BC671" s="51"/>
+      <c r="BD671" s="51"/>
+      <c r="BE671" s="51"/>
+      <c r="BF671" s="51"/>
+      <c r="BG671" s="51"/>
+      <c r="BH671" s="51"/>
+      <c r="BI671" s="51"/>
+      <c r="BJ671" s="51"/>
+      <c r="BK671" s="51"/>
+      <c r="BL671" s="51"/>
+      <c r="BM671" s="51"/>
+      <c r="BN671" s="51"/>
+      <c r="BO671" s="51"/>
+      <c r="BP671" s="51"/>
+      <c r="BQ671" s="51"/>
+      <c r="BR671" s="51"/>
+      <c r="BS671" s="51"/>
+      <c r="BT671" s="51"/>
+      <c r="BU671" s="51"/>
+      <c r="BV671" s="51"/>
+      <c r="BW671" s="51"/>
+      <c r="BX671" s="51"/>
+      <c r="BY671" s="51"/>
+      <c r="BZ671" s="51"/>
+      <c r="CA671" s="51"/>
+      <c r="CB671" s="51"/>
+      <c r="CC671" s="51"/>
+      <c r="CD671" s="51"/>
+    </row>
+    <row r="672" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I672" s="49"/>
+      <c r="J672" s="49"/>
+      <c r="K672" s="49"/>
+      <c r="L672" s="49"/>
+      <c r="M672" s="49"/>
+      <c r="N672" s="49"/>
+      <c r="O672" s="49"/>
+      <c r="P672" s="49"/>
+      <c r="Q672" s="49"/>
+      <c r="R672" s="49"/>
+      <c r="S672" s="49"/>
+      <c r="T672" s="49"/>
+      <c r="U672" s="49"/>
+      <c r="V672" s="49"/>
+      <c r="W672" s="49"/>
+      <c r="X672" s="49"/>
+      <c r="Y672" s="49"/>
+      <c r="Z672" s="49"/>
+      <c r="AA672" s="49"/>
+      <c r="AB672" s="49"/>
+      <c r="AC672" s="49"/>
+      <c r="AD672" s="49"/>
+      <c r="AE672" s="49"/>
+      <c r="AF672" s="49"/>
+      <c r="AG672" s="49"/>
+      <c r="AH672" s="49"/>
+      <c r="AI672" s="49"/>
+      <c r="AJ672" s="49"/>
+      <c r="AK672" s="51"/>
+      <c r="AL672" s="51"/>
+      <c r="AM672" s="51"/>
+      <c r="AN672" s="51"/>
+      <c r="AO672" s="51"/>
+      <c r="AP672" s="51"/>
+      <c r="AQ672" s="51"/>
+      <c r="AR672" s="51"/>
+      <c r="AS672" s="51"/>
+      <c r="AT672" s="51"/>
+      <c r="AU672" s="51"/>
+      <c r="AV672" s="51"/>
+      <c r="AW672" s="51"/>
+      <c r="AX672" s="51"/>
+      <c r="AY672" s="51"/>
+      <c r="AZ672" s="51"/>
+      <c r="BA672" s="51"/>
+      <c r="BB672" s="51"/>
+      <c r="BC672" s="51"/>
+      <c r="BD672" s="51"/>
+      <c r="BE672" s="51"/>
+      <c r="BF672" s="51"/>
+      <c r="BG672" s="51"/>
+      <c r="BH672" s="51"/>
+      <c r="BI672" s="51"/>
+      <c r="BJ672" s="51"/>
+      <c r="BK672" s="51"/>
+      <c r="BL672" s="51"/>
+      <c r="BM672" s="51"/>
+      <c r="BN672" s="51"/>
+      <c r="BO672" s="51"/>
+      <c r="BP672" s="51"/>
+      <c r="BQ672" s="51"/>
+      <c r="BR672" s="51"/>
+      <c r="BS672" s="51"/>
+      <c r="BT672" s="51"/>
+      <c r="BU672" s="51"/>
+      <c r="BV672" s="51"/>
+      <c r="BW672" s="51"/>
+      <c r="BX672" s="51"/>
+      <c r="BY672" s="51"/>
+      <c r="BZ672" s="51"/>
+      <c r="CA672" s="51"/>
+      <c r="CB672" s="51"/>
+      <c r="CC672" s="51"/>
+      <c r="CD672" s="51"/>
+    </row>
+    <row r="673" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I673" s="49"/>
+      <c r="J673" s="49"/>
+      <c r="K673" s="49"/>
+      <c r="L673" s="49"/>
+      <c r="M673" s="49"/>
+      <c r="N673" s="49"/>
+      <c r="O673" s="49"/>
+      <c r="P673" s="49"/>
+      <c r="Q673" s="49"/>
+      <c r="R673" s="49"/>
+      <c r="S673" s="49"/>
+      <c r="T673" s="49"/>
+      <c r="U673" s="49"/>
+      <c r="V673" s="49"/>
+      <c r="W673" s="49"/>
+      <c r="X673" s="49"/>
+      <c r="Y673" s="49"/>
+      <c r="Z673" s="49"/>
+      <c r="AA673" s="49"/>
+      <c r="AB673" s="49"/>
+      <c r="AC673" s="49"/>
+      <c r="AD673" s="49"/>
+      <c r="AE673" s="49"/>
+      <c r="AF673" s="49"/>
+      <c r="AG673" s="49"/>
+      <c r="AH673" s="49"/>
+      <c r="AI673" s="49"/>
+      <c r="AJ673" s="49"/>
+      <c r="AK673" s="51"/>
+      <c r="AL673" s="51"/>
+      <c r="AM673" s="51"/>
+      <c r="AN673" s="51"/>
+      <c r="AO673" s="51"/>
+      <c r="AP673" s="51"/>
+      <c r="AQ673" s="51"/>
+      <c r="AR673" s="51"/>
+      <c r="AS673" s="51"/>
+      <c r="AT673" s="51"/>
+      <c r="AU673" s="51"/>
+      <c r="AV673" s="51"/>
+      <c r="AW673" s="51"/>
+      <c r="AX673" s="51"/>
+      <c r="AY673" s="51"/>
+      <c r="AZ673" s="51"/>
+      <c r="BA673" s="51"/>
+      <c r="BB673" s="51"/>
+      <c r="BC673" s="51"/>
+      <c r="BD673" s="51"/>
+      <c r="BE673" s="51"/>
+      <c r="BF673" s="51"/>
+      <c r="BG673" s="51"/>
+      <c r="BH673" s="51"/>
+      <c r="BI673" s="51"/>
+      <c r="BJ673" s="51"/>
+      <c r="BK673" s="51"/>
+      <c r="BL673" s="51"/>
+      <c r="BM673" s="51"/>
+      <c r="BN673" s="51"/>
+      <c r="BO673" s="51"/>
+      <c r="BP673" s="51"/>
+      <c r="BQ673" s="51"/>
+      <c r="BR673" s="51"/>
+      <c r="BS673" s="51"/>
+      <c r="BT673" s="51"/>
+      <c r="BU673" s="51"/>
+      <c r="BV673" s="51"/>
+      <c r="BW673" s="51"/>
+      <c r="BX673" s="51"/>
+      <c r="BY673" s="51"/>
+      <c r="BZ673" s="51"/>
+      <c r="CA673" s="51"/>
+      <c r="CB673" s="51"/>
+      <c r="CC673" s="51"/>
+      <c r="CD673" s="51"/>
+    </row>
+    <row r="674" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I674" s="49"/>
+      <c r="J674" s="49"/>
+      <c r="K674" s="49"/>
+      <c r="L674" s="49"/>
+      <c r="M674" s="49"/>
+      <c r="N674" s="49"/>
+      <c r="O674" s="49"/>
+      <c r="P674" s="49"/>
+      <c r="Q674" s="49"/>
+      <c r="R674" s="49"/>
+      <c r="S674" s="49"/>
+      <c r="T674" s="49"/>
+      <c r="U674" s="49"/>
+      <c r="V674" s="49"/>
+      <c r="W674" s="49"/>
+      <c r="X674" s="49"/>
+      <c r="Y674" s="49"/>
+      <c r="Z674" s="49"/>
+      <c r="AA674" s="49"/>
+      <c r="AB674" s="49"/>
+      <c r="AC674" s="49"/>
+      <c r="AD674" s="49"/>
+      <c r="AE674" s="49"/>
+      <c r="AF674" s="49"/>
+      <c r="AG674" s="49"/>
+      <c r="AH674" s="49"/>
+      <c r="AI674" s="49"/>
+      <c r="AJ674" s="49"/>
+      <c r="AK674" s="51"/>
+      <c r="AL674" s="51"/>
+      <c r="AM674" s="51"/>
+      <c r="AN674" s="51"/>
+      <c r="AO674" s="51"/>
+      <c r="AP674" s="51"/>
+      <c r="AQ674" s="51"/>
+      <c r="AR674" s="51"/>
+      <c r="AS674" s="51"/>
+      <c r="AT674" s="51"/>
+      <c r="AU674" s="51"/>
+      <c r="AV674" s="51"/>
+      <c r="AW674" s="51"/>
+      <c r="AX674" s="51"/>
+      <c r="AY674" s="51"/>
+      <c r="AZ674" s="51"/>
+      <c r="BA674" s="51"/>
+      <c r="BB674" s="51"/>
+      <c r="BC674" s="51"/>
+      <c r="BD674" s="51"/>
+      <c r="BE674" s="51"/>
+      <c r="BF674" s="51"/>
+      <c r="BG674" s="51"/>
+      <c r="BH674" s="51"/>
+      <c r="BI674" s="51"/>
+      <c r="BJ674" s="51"/>
+      <c r="BK674" s="51"/>
+      <c r="BL674" s="51"/>
+      <c r="BM674" s="51"/>
+      <c r="BN674" s="51"/>
+      <c r="BO674" s="51"/>
+      <c r="BP674" s="51"/>
+      <c r="BQ674" s="51"/>
+      <c r="BR674" s="51"/>
+      <c r="BS674" s="51"/>
+      <c r="BT674" s="51"/>
+      <c r="BU674" s="51"/>
+      <c r="BV674" s="51"/>
+      <c r="BW674" s="51"/>
+      <c r="BX674" s="51"/>
+      <c r="BY674" s="51"/>
+      <c r="BZ674" s="51"/>
+      <c r="CA674" s="51"/>
+      <c r="CB674" s="51"/>
+      <c r="CC674" s="51"/>
+      <c r="CD674" s="51"/>
+    </row>
+    <row r="675" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I675" s="49"/>
+      <c r="J675" s="49"/>
+      <c r="K675" s="49"/>
+      <c r="L675" s="49"/>
+      <c r="M675" s="49"/>
+      <c r="N675" s="49"/>
+      <c r="O675" s="49"/>
+      <c r="P675" s="49"/>
+      <c r="Q675" s="49"/>
+      <c r="R675" s="49"/>
+      <c r="S675" s="49"/>
+      <c r="T675" s="49"/>
+      <c r="U675" s="49"/>
+      <c r="V675" s="49"/>
+      <c r="W675" s="49"/>
+      <c r="X675" s="49"/>
+      <c r="Y675" s="49"/>
+      <c r="Z675" s="49"/>
+      <c r="AA675" s="49"/>
+      <c r="AB675" s="49"/>
+      <c r="AC675" s="49"/>
+      <c r="AD675" s="49"/>
+      <c r="AE675" s="49"/>
+      <c r="AF675" s="49"/>
+      <c r="AG675" s="49"/>
+      <c r="AH675" s="49"/>
+      <c r="AI675" s="49"/>
+      <c r="AJ675" s="49"/>
+      <c r="AK675" s="51"/>
+      <c r="AL675" s="51"/>
+      <c r="AM675" s="51"/>
+      <c r="AN675" s="51"/>
+      <c r="AO675" s="51"/>
+      <c r="AP675" s="51"/>
+      <c r="AQ675" s="51"/>
+      <c r="AR675" s="51"/>
+      <c r="AS675" s="51"/>
+      <c r="AT675" s="51"/>
+      <c r="AU675" s="51"/>
+      <c r="AV675" s="51"/>
+      <c r="AW675" s="51"/>
+      <c r="AX675" s="51"/>
+      <c r="AY675" s="51"/>
+      <c r="AZ675" s="51"/>
+      <c r="BA675" s="51"/>
+      <c r="BB675" s="51"/>
+      <c r="BC675" s="51"/>
+      <c r="BD675" s="51"/>
+      <c r="BE675" s="51"/>
+      <c r="BF675" s="51"/>
+      <c r="BG675" s="51"/>
+      <c r="BH675" s="51"/>
+      <c r="BI675" s="51"/>
+      <c r="BJ675" s="51"/>
+      <c r="BK675" s="51"/>
+      <c r="BL675" s="51"/>
+      <c r="BM675" s="51"/>
+      <c r="BN675" s="51"/>
+      <c r="BO675" s="51"/>
+      <c r="BP675" s="51"/>
+      <c r="BQ675" s="51"/>
+      <c r="BR675" s="51"/>
+      <c r="BS675" s="51"/>
+      <c r="BT675" s="51"/>
+      <c r="BU675" s="51"/>
+      <c r="BV675" s="51"/>
+      <c r="BW675" s="51"/>
+      <c r="BX675" s="51"/>
+      <c r="BY675" s="51"/>
+      <c r="BZ675" s="51"/>
+      <c r="CA675" s="51"/>
+      <c r="CB675" s="51"/>
+      <c r="CC675" s="51"/>
+      <c r="CD675" s="51"/>
+    </row>
+    <row r="676" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I676" s="49"/>
+      <c r="J676" s="49"/>
+      <c r="K676" s="49"/>
+      <c r="L676" s="49"/>
+      <c r="M676" s="49"/>
+      <c r="N676" s="49"/>
+      <c r="O676" s="49"/>
+      <c r="P676" s="49"/>
+      <c r="Q676" s="49"/>
+      <c r="R676" s="49"/>
+      <c r="S676" s="49"/>
+      <c r="T676" s="49"/>
+      <c r="U676" s="49"/>
+      <c r="V676" s="49"/>
+      <c r="W676" s="49"/>
+      <c r="X676" s="49"/>
+      <c r="Y676" s="49"/>
+      <c r="Z676" s="49"/>
+      <c r="AA676" s="49"/>
+      <c r="AB676" s="49"/>
+      <c r="AC676" s="49"/>
+      <c r="AD676" s="49"/>
+      <c r="AE676" s="49"/>
+      <c r="AF676" s="49"/>
+      <c r="AG676" s="49"/>
+      <c r="AH676" s="49"/>
+      <c r="AI676" s="49"/>
+      <c r="AJ676" s="49"/>
+      <c r="AK676" s="51"/>
+      <c r="AL676" s="51"/>
+      <c r="AM676" s="51"/>
+      <c r="AN676" s="51"/>
+      <c r="AO676" s="51"/>
+      <c r="AP676" s="51"/>
+      <c r="AQ676" s="51"/>
+      <c r="AR676" s="51"/>
+      <c r="AS676" s="51"/>
+      <c r="AT676" s="51"/>
+      <c r="AU676" s="51"/>
+      <c r="AV676" s="51"/>
+      <c r="AW676" s="51"/>
+      <c r="AX676" s="51"/>
+      <c r="AY676" s="51"/>
+      <c r="AZ676" s="51"/>
+      <c r="BA676" s="51"/>
+      <c r="BB676" s="51"/>
+      <c r="BC676" s="51"/>
+      <c r="BD676" s="51"/>
+      <c r="BE676" s="51"/>
+      <c r="BF676" s="51"/>
+      <c r="BG676" s="51"/>
+      <c r="BH676" s="51"/>
+      <c r="BI676" s="51"/>
+      <c r="BJ676" s="51"/>
+      <c r="BK676" s="51"/>
+      <c r="BL676" s="51"/>
+      <c r="BM676" s="51"/>
+      <c r="BN676" s="51"/>
+      <c r="BO676" s="51"/>
+      <c r="BP676" s="51"/>
+      <c r="BQ676" s="51"/>
+      <c r="BR676" s="51"/>
+      <c r="BS676" s="51"/>
+      <c r="BT676" s="51"/>
+      <c r="BU676" s="51"/>
+      <c r="BV676" s="51"/>
+      <c r="BW676" s="51"/>
+      <c r="BX676" s="51"/>
+      <c r="BY676" s="51"/>
+      <c r="BZ676" s="51"/>
+      <c r="CA676" s="51"/>
+      <c r="CB676" s="51"/>
+      <c r="CC676" s="51"/>
+      <c r="CD676" s="51"/>
+    </row>
+    <row r="677" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I677" s="49"/>
+      <c r="J677" s="49"/>
+      <c r="K677" s="49"/>
+      <c r="L677" s="49"/>
+      <c r="M677" s="49"/>
+      <c r="N677" s="49"/>
+      <c r="O677" s="49"/>
+      <c r="P677" s="49"/>
+      <c r="Q677" s="49"/>
+      <c r="R677" s="49"/>
+      <c r="S677" s="49"/>
+      <c r="T677" s="49"/>
+      <c r="U677" s="49"/>
+      <c r="V677" s="49"/>
+      <c r="W677" s="49"/>
+      <c r="X677" s="49"/>
+      <c r="Y677" s="49"/>
+      <c r="Z677" s="49"/>
+      <c r="AA677" s="49"/>
+      <c r="AB677" s="49"/>
+      <c r="AC677" s="49"/>
+      <c r="AD677" s="49"/>
+      <c r="AE677" s="49"/>
+      <c r="AF677" s="49"/>
+      <c r="AG677" s="49"/>
+      <c r="AH677" s="49"/>
+      <c r="AI677" s="49"/>
+      <c r="AJ677" s="49"/>
+      <c r="AK677" s="51"/>
+      <c r="AL677" s="51"/>
+      <c r="AM677" s="51"/>
+      <c r="AN677" s="51"/>
+      <c r="AO677" s="51"/>
+      <c r="AP677" s="51"/>
+      <c r="AQ677" s="51"/>
+      <c r="AR677" s="51"/>
+      <c r="AS677" s="51"/>
+      <c r="AT677" s="51"/>
+      <c r="AU677" s="51"/>
+      <c r="AV677" s="51"/>
+      <c r="AW677" s="51"/>
+      <c r="AX677" s="51"/>
+      <c r="AY677" s="51"/>
+      <c r="AZ677" s="51"/>
+      <c r="BA677" s="51"/>
+      <c r="BB677" s="51"/>
+      <c r="BC677" s="51"/>
+      <c r="BD677" s="51"/>
+      <c r="BE677" s="51"/>
+      <c r="BF677" s="51"/>
+      <c r="BG677" s="51"/>
+      <c r="BH677" s="51"/>
+      <c r="BI677" s="51"/>
+      <c r="BJ677" s="51"/>
+      <c r="BK677" s="51"/>
+      <c r="BL677" s="51"/>
+      <c r="BM677" s="51"/>
+      <c r="BN677" s="51"/>
+      <c r="BO677" s="51"/>
+      <c r="BP677" s="51"/>
+      <c r="BQ677" s="51"/>
+      <c r="BR677" s="51"/>
+      <c r="BS677" s="51"/>
+      <c r="BT677" s="51"/>
+      <c r="BU677" s="51"/>
+      <c r="BV677" s="51"/>
+      <c r="BW677" s="51"/>
+      <c r="BX677" s="51"/>
+      <c r="BY677" s="51"/>
+      <c r="BZ677" s="51"/>
+      <c r="CA677" s="51"/>
+      <c r="CB677" s="51"/>
+      <c r="CC677" s="51"/>
+      <c r="CD677" s="51"/>
+    </row>
+    <row r="678" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I678" s="49"/>
+      <c r="J678" s="49"/>
+      <c r="K678" s="49"/>
+      <c r="L678" s="49"/>
+      <c r="M678" s="49"/>
+      <c r="N678" s="49"/>
+      <c r="O678" s="49"/>
+      <c r="P678" s="49"/>
+      <c r="Q678" s="49"/>
+      <c r="R678" s="49"/>
+      <c r="S678" s="49"/>
+      <c r="T678" s="49"/>
+      <c r="U678" s="49"/>
+      <c r="V678" s="49"/>
+      <c r="W678" s="49"/>
+      <c r="X678" s="49"/>
+      <c r="Y678" s="49"/>
+      <c r="Z678" s="49"/>
+      <c r="AA678" s="49"/>
+      <c r="AB678" s="49"/>
+      <c r="AC678" s="49"/>
+      <c r="AD678" s="49"/>
+      <c r="AE678" s="49"/>
+      <c r="AF678" s="49"/>
+      <c r="AG678" s="49"/>
+      <c r="AH678" s="49"/>
+      <c r="AI678" s="49"/>
+      <c r="AJ678" s="49"/>
+      <c r="AK678" s="51"/>
+      <c r="AL678" s="51"/>
+      <c r="AM678" s="51"/>
+      <c r="AN678" s="51"/>
+      <c r="AO678" s="51"/>
+      <c r="AP678" s="51"/>
+      <c r="AQ678" s="51"/>
+      <c r="AR678" s="51"/>
+      <c r="AS678" s="51"/>
+      <c r="AT678" s="51"/>
+      <c r="AU678" s="51"/>
+      <c r="AV678" s="51"/>
+      <c r="AW678" s="51"/>
+      <c r="AX678" s="51"/>
+      <c r="AY678" s="51"/>
+      <c r="AZ678" s="51"/>
+      <c r="BA678" s="51"/>
+      <c r="BB678" s="51"/>
+      <c r="BC678" s="51"/>
+      <c r="BD678" s="51"/>
+      <c r="BE678" s="51"/>
+      <c r="BF678" s="51"/>
+      <c r="BG678" s="51"/>
+      <c r="BH678" s="51"/>
+      <c r="BI678" s="51"/>
+      <c r="BJ678" s="51"/>
+      <c r="BK678" s="51"/>
+      <c r="BL678" s="51"/>
+      <c r="BM678" s="51"/>
+      <c r="BN678" s="51"/>
+      <c r="BO678" s="51"/>
+      <c r="BP678" s="51"/>
+      <c r="BQ678" s="51"/>
+      <c r="BR678" s="51"/>
+      <c r="BS678" s="51"/>
+      <c r="BT678" s="51"/>
+      <c r="BU678" s="51"/>
+      <c r="BV678" s="51"/>
+      <c r="BW678" s="51"/>
+      <c r="BX678" s="51"/>
+      <c r="BY678" s="51"/>
+      <c r="BZ678" s="51"/>
+      <c r="CA678" s="51"/>
+      <c r="CB678" s="51"/>
+      <c r="CC678" s="51"/>
+      <c r="CD678" s="51"/>
+    </row>
+    <row r="679" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I679" s="49"/>
+      <c r="J679" s="49"/>
+      <c r="K679" s="49"/>
+      <c r="L679" s="49"/>
+      <c r="M679" s="49"/>
+      <c r="N679" s="49"/>
+      <c r="O679" s="49"/>
+      <c r="P679" s="49"/>
+      <c r="Q679" s="49"/>
+      <c r="R679" s="49"/>
+      <c r="S679" s="49"/>
+      <c r="T679" s="49"/>
+      <c r="U679" s="49"/>
+      <c r="V679" s="49"/>
+      <c r="W679" s="49"/>
+      <c r="X679" s="49"/>
+      <c r="Y679" s="49"/>
+      <c r="Z679" s="49"/>
+      <c r="AA679" s="49"/>
+      <c r="AB679" s="49"/>
+      <c r="AC679" s="49"/>
+      <c r="AD679" s="49"/>
+      <c r="AE679" s="49"/>
+      <c r="AF679" s="49"/>
+      <c r="AG679" s="49"/>
+      <c r="AH679" s="49"/>
+      <c r="AI679" s="49"/>
+      <c r="AJ679" s="49"/>
+      <c r="AK679" s="51"/>
+      <c r="AL679" s="51"/>
+      <c r="AM679" s="51"/>
+      <c r="AN679" s="51"/>
+      <c r="AO679" s="51"/>
+      <c r="AP679" s="51"/>
+      <c r="AQ679" s="51"/>
+      <c r="AR679" s="51"/>
+      <c r="AS679" s="51"/>
+      <c r="AT679" s="51"/>
+      <c r="AU679" s="51"/>
+      <c r="AV679" s="51"/>
+      <c r="AW679" s="51"/>
+      <c r="AX679" s="51"/>
+      <c r="AY679" s="51"/>
+      <c r="AZ679" s="51"/>
+      <c r="BA679" s="51"/>
+      <c r="BB679" s="51"/>
+      <c r="BC679" s="51"/>
+      <c r="BD679" s="51"/>
+      <c r="BE679" s="51"/>
+      <c r="BF679" s="51"/>
+      <c r="BG679" s="51"/>
+      <c r="BH679" s="51"/>
+      <c r="BI679" s="51"/>
+      <c r="BJ679" s="51"/>
+      <c r="BK679" s="51"/>
+      <c r="BL679" s="51"/>
+      <c r="BM679" s="51"/>
+      <c r="BN679" s="51"/>
+      <c r="BO679" s="51"/>
+      <c r="BP679" s="51"/>
+      <c r="BQ679" s="51"/>
+      <c r="BR679" s="51"/>
+      <c r="BS679" s="51"/>
+      <c r="BT679" s="51"/>
+      <c r="BU679" s="51"/>
+      <c r="BV679" s="51"/>
+      <c r="BW679" s="51"/>
+      <c r="BX679" s="51"/>
+      <c r="BY679" s="51"/>
+      <c r="BZ679" s="51"/>
+      <c r="CA679" s="51"/>
+      <c r="CB679" s="51"/>
+      <c r="CC679" s="51"/>
+      <c r="CD679" s="51"/>
+    </row>
   </sheetData>
-  <mergeCells count="268">
+  <mergeCells count="290">
+    <mergeCell ref="I660:CD661"/>
+    <mergeCell ref="I662:AJ679"/>
+    <mergeCell ref="AK662:CD679"/>
+    <mergeCell ref="I634:AJ651"/>
+    <mergeCell ref="AK634:CD651"/>
+    <mergeCell ref="I655:Z656"/>
+    <mergeCell ref="AA655:AJ656"/>
+    <mergeCell ref="AK655:BT656"/>
+    <mergeCell ref="BU655:CD656"/>
+    <mergeCell ref="I657:Z659"/>
+    <mergeCell ref="AA657:AJ659"/>
+    <mergeCell ref="AK657:BT659"/>
+    <mergeCell ref="BU657:CD659"/>
+    <mergeCell ref="I627:Z628"/>
+    <mergeCell ref="AA627:AJ628"/>
+    <mergeCell ref="AK627:BT628"/>
+    <mergeCell ref="BU627:CD628"/>
+    <mergeCell ref="I629:Z631"/>
+    <mergeCell ref="AA629:AJ631"/>
+    <mergeCell ref="AK629:BT631"/>
+    <mergeCell ref="BU629:CD631"/>
+    <mergeCell ref="I632:CD633"/>
     <mergeCell ref="I606:AJ623"/>
     <mergeCell ref="AK606:CD623"/>
     <mergeCell ref="I601:Z603"/>
